--- a/pred_ohlcv/54_21/2020-01-24 BSV ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-24 BSV ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>405.8327235400001</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>415.34822354</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>420.16512354</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>475.98122354</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>655.69682416</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>631.6948241600001</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>631.6948241600001</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>631.6948241600001</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>631.64552416</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>630.1544241600001</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>641.3252241600001</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>672.42542416</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>672.42542416</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>587.21752416</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>573.96622416</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>573.96622416</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>476.70022416</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>465.03722416</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>460.73252416</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>435.6146241599999</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>428.15532416</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>428.15532416</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>282.74322416</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>290.74402416</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>290.83402416</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>304.05183628</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>300.72753628</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>300.94753628</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>299.76533628</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>291.76533628</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>232.98575437</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>78.41205436999999</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-7.054945630000006</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>21.78935436999999</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>36.24471216999999</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-179.91438783</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-478.03128783</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-1012.9860595</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-1056.9691595</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-1130.6596595</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-1152.0832595</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-1221.4542595</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-1206.36202087</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-1206.40202087</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-1218.03032214</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-1175.53062214</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-1172.58822203</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-1173.85322262</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-1174.80347944</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-1165.09087944</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-1181.91067944</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-1178.06797944</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-1177.74797944</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-1194.92369251</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-1238.3131028</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-1238.3134028</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-1109.19622737</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-1112.78391972</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-1102.51741972</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-1033.92501688</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-1031.50231688</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-1031.50231688</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-1086.97641688</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-1046.89311688</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-1037.22341688</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-1123.89561688</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-1117.80571688</v>
       </c>
       <c r="H254">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-1215.45911688</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-1200.60445395</v>
       </c>
       <c r="H256">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-1458.18055395</v>
       </c>
       <c r="H257">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-1460.20275395</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-1458.62235395</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-1411.31995395</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-1411.31995395</v>
       </c>
       <c r="H261">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-1411.37815395</v>
       </c>
       <c r="H262">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-1405.08625395</v>
       </c>
       <c r="H263">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-1407.47885395</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-1407.47885395</v>
       </c>
       <c r="H265">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-1407.47885395</v>
       </c>
       <c r="H266">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-1394.44505395</v>
       </c>
       <c r="H267">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-1394.44505395</v>
       </c>
       <c r="H268">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-1374.05265339</v>
       </c>
       <c r="H269">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-1374.05265339</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-1388.28415339</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-1384.96385339</v>
       </c>
       <c r="H272">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-1384.96385339</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-1391.83475339</v>
       </c>
       <c r="H274">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-1385.15155339</v>
       </c>
       <c r="H275">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-1390.29845339</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-1388.75135339</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-1388.75135339</v>
       </c>
       <c r="H278">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-1411.70755339</v>
       </c>
       <c r="H279">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-1411.70755339</v>
       </c>
       <c r="H280">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-1411.70755339</v>
       </c>
       <c r="H281">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-1412.70755339</v>
       </c>
       <c r="H282">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-1412.70755339</v>
       </c>
       <c r="H283">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-1411.51215339</v>
       </c>
       <c r="H284">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-1410.55755339</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-1397.41821463</v>
       </c>
       <c r="H286">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-1400.24231463</v>
       </c>
       <c r="H287">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-1400.24231463</v>
       </c>
       <c r="H288">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-1400.24231463</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-1509.335914629999</v>
       </c>
       <c r="H290">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-1417.279176459999</v>
       </c>
       <c r="H376">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-1436.411975079999</v>
       </c>
       <c r="H377">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-1498.230240939999</v>
       </c>
       <c r="H382">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-1483.66833866</v>
       </c>
       <c r="H384">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-1420.01363866</v>
       </c>
       <c r="H385">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-1037.83423866</v>
       </c>
       <c r="H386">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-1138.72123082</v>
       </c>
       <c r="H387">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-1238.71735074</v>
       </c>
       <c r="H388">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-1243.04665074</v>
       </c>
       <c r="H389">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>-1233.33713715</v>
       </c>
       <c r="H390">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>-1233.33713715</v>
       </c>
       <c r="H391">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>-1233.33713715</v>
       </c>
       <c r="H392">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>-1233.78993715</v>
       </c>
       <c r="H393">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>-1248.83273715</v>
       </c>
       <c r="H394">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>-1150.57483715</v>
       </c>
       <c r="H395">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>-1150.57483715</v>
       </c>
       <c r="H396">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>-1150.57483715</v>
       </c>
       <c r="H397">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>-1150.57483715</v>
       </c>
       <c r="H398">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>-1145.42223715</v>
       </c>
       <c r="H399">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>-1145.46033715</v>
       </c>
       <c r="H400">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>-1144.44683715</v>
       </c>
       <c r="H401">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>-1258.31963715</v>
       </c>
       <c r="H402">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>-960.4477371499999</v>
       </c>
       <c r="H403">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>-960.4477371499999</v>
       </c>
       <c r="H404">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>-968.3074371499998</v>
       </c>
       <c r="H405">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>-968.3074371499998</v>
       </c>
       <c r="H406">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>-1054.54833715</v>
       </c>
       <c r="H407">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>-1113.63233715</v>
       </c>
       <c r="H408">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>-1084.64553715</v>
       </c>
       <c r="H409">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-1084.81620814</v>
       </c>
       <c r="H410">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-1287.68540814</v>
       </c>
       <c r="H411">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-1272.49550814</v>
       </c>
       <c r="H412">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -15550,7 +15550,7 @@
         <v>-2351.750501649998</v>
       </c>
       <c r="H583">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -15576,7 +15576,7 @@
         <v>-2275.059542649998</v>
       </c>
       <c r="H584">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>-2356.431243669997</v>
       </c>
       <c r="H585">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>-2427.550943669998</v>
       </c>
       <c r="H586">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -15654,7 +15654,7 @@
         <v>-2260.656343669998</v>
       </c>
       <c r="H587">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -15680,7 +15680,7 @@
         <v>-2067.591143669998</v>
       </c>
       <c r="H588">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -15706,7 +15706,7 @@
         <v>-2330.052243669998</v>
       </c>
       <c r="H589">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -15732,7 +15732,7 @@
         <v>-2330.052243669998</v>
       </c>
       <c r="H590">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -15758,7 +15758,7 @@
         <v>-2324.700329269997</v>
       </c>
       <c r="H591">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -15784,7 +15784,7 @@
         <v>-2277.887343669997</v>
       </c>
       <c r="H592">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>-2367.019434329997</v>
       </c>
       <c r="H593">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>-2434.358834329997</v>
       </c>
       <c r="H594">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>-2338.364434329997</v>
       </c>
       <c r="H595">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -15888,7 +15888,7 @@
         <v>-2226.385634329997</v>
       </c>
       <c r="H596">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -15914,7 +15914,7 @@
         <v>-2220.001034329997</v>
       </c>
       <c r="H597">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -15940,7 +15940,7 @@
         <v>-2366.730148729997</v>
       </c>
       <c r="H598">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -15966,7 +15966,7 @@
         <v>-2384.633948729997</v>
       </c>
       <c r="H599">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -15992,7 +15992,7 @@
         <v>-2384.633948729997</v>
       </c>
       <c r="H600">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -16018,7 +16018,7 @@
         <v>-2381.102548129998</v>
       </c>
       <c r="H601">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>-2439.071348129998</v>
       </c>
       <c r="H602">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>-2439.071348129998</v>
       </c>
       <c r="H603">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16096,7 +16096,7 @@
         <v>-2436.665048129998</v>
       </c>
       <c r="H604">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>-2405.842348439998</v>
       </c>
       <c r="H605">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>-2526.121648439998</v>
       </c>
       <c r="H606">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>-2506.030448439998</v>
       </c>
       <c r="H607">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>-2491.992348439998</v>
       </c>
       <c r="H608">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>-2532.062348439998</v>
       </c>
       <c r="H609">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>-2591.723548439998</v>
       </c>
       <c r="H610">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>-2521.692948439998</v>
       </c>
       <c r="H611">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>-2545.459348439998</v>
       </c>
       <c r="H612">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>-2554.772148439998</v>
       </c>
       <c r="H613">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>-2554.683448439998</v>
       </c>
       <c r="H614">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>-2599.574548439998</v>
       </c>
       <c r="H615">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>-2565.686548439998</v>
       </c>
       <c r="H616">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>-2353.680148439998</v>
       </c>
       <c r="H617">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -16460,7 +16460,7 @@
         <v>-2394.611248439998</v>
       </c>
       <c r="H618">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>-2168.921148439998</v>
       </c>
       <c r="H619">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>-2187.753348439998</v>
       </c>
       <c r="H620">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>-1597.290548439998</v>
       </c>
       <c r="H622">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>-1596.287748439998</v>
       </c>
       <c r="H623">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>-1586.530148439998</v>
       </c>
       <c r="H624">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>-1716.348048439998</v>
       </c>
       <c r="H625">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>-1660.992494209998</v>
       </c>
       <c r="H626">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>-1657.989394209998</v>
       </c>
       <c r="H629">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>-1613.548248439997</v>
       </c>
       <c r="H636">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>-1846.820909279997</v>
       </c>
       <c r="H655">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>-1786.518709279997</v>
       </c>
       <c r="H657">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>-1858.485609279997</v>
       </c>
       <c r="H658">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>-1858.480209279997</v>
       </c>
       <c r="H659">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>-1870.151409279997</v>
       </c>
       <c r="H660">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>-1912.753509279997</v>
       </c>
       <c r="H661">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>-1881.350709279997</v>
       </c>
       <c r="H662">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>-1891.491909279997</v>
       </c>
       <c r="H663">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -19398,7 +19398,7 @@
         <v>-5223.269820689996</v>
       </c>
       <c r="H731">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="732" spans="1:8">
@@ -19424,7 +19424,7 @@
         <v>-5089.982021259996</v>
       </c>
       <c r="H732">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="733" spans="1:8">
@@ -19450,7 +19450,7 @@
         <v>-5251.256821259996</v>
       </c>
       <c r="H733">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="734" spans="1:8">
@@ -19476,7 +19476,7 @@
         <v>-5292.627721259996</v>
       </c>
       <c r="H734">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="735" spans="1:8">
@@ -19502,7 +19502,7 @@
         <v>-5481.868821259996</v>
       </c>
       <c r="H735">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="736" spans="1:8">
@@ -19528,7 +19528,7 @@
         <v>-5330.021521259996</v>
       </c>
       <c r="H736">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="737" spans="1:8">
@@ -19554,7 +19554,7 @@
         <v>-5144.772421259996</v>
       </c>
       <c r="H737">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="738" spans="1:8">
@@ -19580,7 +19580,7 @@
         <v>-4788.819121259996</v>
       </c>
       <c r="H738">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="739" spans="1:8">
@@ -19606,7 +19606,7 @@
         <v>-4741.917740039996</v>
       </c>
       <c r="H739">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="740" spans="1:8">
@@ -19632,7 +19632,7 @@
         <v>-4471.561244669996</v>
       </c>
       <c r="H740">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="741" spans="1:8">
@@ -19658,7 +19658,7 @@
         <v>-4674.816389599996</v>
       </c>
       <c r="H741">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="742" spans="1:8">
@@ -19684,7 +19684,7 @@
         <v>-4649.989989599996</v>
       </c>
       <c r="H742">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="743" spans="1:8">
@@ -19710,7 +19710,7 @@
         <v>-4295.637982869996</v>
       </c>
       <c r="H743">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="744" spans="1:8">
@@ -20282,7 +20282,7 @@
         <v>-4570.602594949997</v>
       </c>
       <c r="H765">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="766" spans="1:8">
@@ -20308,7 +20308,7 @@
         <v>-4486.072294949997</v>
       </c>
       <c r="H766">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="767" spans="1:8">
@@ -20360,7 +20360,7 @@
         <v>-4652.843266609996</v>
       </c>
       <c r="H768">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="769" spans="1:8">
@@ -20516,7 +20516,7 @@
         <v>-4597.664566609996</v>
       </c>
       <c r="H774">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="775" spans="1:8">
@@ -20542,7 +20542,7 @@
         <v>-4375.738666609996</v>
       </c>
       <c r="H775">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="776" spans="1:8">
@@ -20568,7 +20568,7 @@
         <v>-4143.811366609995</v>
       </c>
       <c r="H776">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="777" spans="1:8">
@@ -20594,7 +20594,7 @@
         <v>-4005.992629499995</v>
       </c>
       <c r="H777">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="778" spans="1:8">
@@ -20620,7 +20620,7 @@
         <v>-4005.992629499995</v>
       </c>
       <c r="H778">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="779" spans="1:8">
@@ -20646,7 +20646,7 @@
         <v>-4188.196382139996</v>
       </c>
       <c r="H779">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="780" spans="1:8">
@@ -20672,7 +20672,7 @@
         <v>-4250.688082139995</v>
       </c>
       <c r="H780">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="781" spans="1:8">
@@ -20698,7 +20698,7 @@
         <v>-4336.252708929996</v>
       </c>
       <c r="H781">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="782" spans="1:8">
@@ -20724,7 +20724,7 @@
         <v>-4336.252708929996</v>
       </c>
       <c r="H782">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="783" spans="1:8">
@@ -20750,7 +20750,7 @@
         <v>-4374.113208929995</v>
       </c>
       <c r="H783">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="784" spans="1:8">
@@ -20776,7 +20776,7 @@
         <v>-4303.242808929996</v>
       </c>
       <c r="H784">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="785" spans="1:8">
@@ -20802,7 +20802,7 @@
         <v>-4409.837008929995</v>
       </c>
       <c r="H785">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="786" spans="1:8">
@@ -20828,7 +20828,7 @@
         <v>-4390.818408929995</v>
       </c>
       <c r="H786">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="787" spans="1:8">
@@ -20854,7 +20854,7 @@
         <v>-4395.818408929995</v>
       </c>
       <c r="H787">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="788" spans="1:8">
@@ -20880,7 +20880,7 @@
         <v>-4394.686008929994</v>
       </c>
       <c r="H788">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="789" spans="1:8">
@@ -20906,7 +20906,7 @@
         <v>-4402.948308929995</v>
       </c>
       <c r="H789">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="790" spans="1:8">
@@ -20932,7 +20932,7 @@
         <v>-4354.715108929995</v>
       </c>
       <c r="H790">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="791" spans="1:8">
@@ -20958,7 +20958,7 @@
         <v>-4362.053008929995</v>
       </c>
       <c r="H791">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="792" spans="1:8">
@@ -20984,7 +20984,7 @@
         <v>-4282.994208929996</v>
       </c>
       <c r="H792">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="793" spans="1:8">
@@ -21010,7 +21010,7 @@
         <v>-4282.994208929996</v>
       </c>
       <c r="H793">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="794" spans="1:8">
@@ -21036,7 +21036,7 @@
         <v>-4230.912008929996</v>
       </c>
       <c r="H794">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="795" spans="1:8">
@@ -21062,7 +21062,7 @@
         <v>-4245.738370459996</v>
       </c>
       <c r="H795">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="796" spans="1:8">
@@ -21088,7 +21088,7 @@
         <v>-4283.658070459996</v>
       </c>
       <c r="H796">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="797" spans="1:8">
@@ -21114,7 +21114,7 @@
         <v>-4255.208070459997</v>
       </c>
       <c r="H797">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="798" spans="1:8">
@@ -21166,7 +21166,7 @@
         <v>-4316.223370459997</v>
       </c>
       <c r="H799">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="800" spans="1:8">
@@ -21244,7 +21244,7 @@
         <v>-4197.933670459996</v>
       </c>
       <c r="H802">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="803" spans="1:8">
@@ -21374,7 +21374,7 @@
         <v>-4302.469441829996</v>
       </c>
       <c r="H807">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="808" spans="1:8">
@@ -21504,7 +21504,7 @@
         <v>-4998.872554819995</v>
       </c>
       <c r="H812">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="813" spans="1:8">
@@ -21608,7 +21608,7 @@
         <v>-4690.046354819996</v>
       </c>
       <c r="H816">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="817" spans="1:8">
@@ -21634,7 +21634,7 @@
         <v>-4428.402654819996</v>
       </c>
       <c r="H817">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="818" spans="1:8">
@@ -21660,7 +21660,7 @@
         <v>-4428.402654819996</v>
       </c>
       <c r="H818">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="819" spans="1:8">
@@ -21712,7 +21712,7 @@
         <v>-3973.357954819996</v>
       </c>
       <c r="H820">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="821" spans="1:8">
@@ -21738,7 +21738,7 @@
         <v>-3939.280454819997</v>
       </c>
       <c r="H821">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="822" spans="1:8">
@@ -21764,7 +21764,7 @@
         <v>-3996.579654819996</v>
       </c>
       <c r="H822">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="823" spans="1:8">
@@ -21790,7 +21790,7 @@
         <v>-3935.108854819996</v>
       </c>
       <c r="H823">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="824" spans="1:8">
@@ -21816,7 +21816,7 @@
         <v>-3965.982254819996</v>
       </c>
       <c r="H824">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="825" spans="1:8">
@@ -21842,7 +21842,7 @@
         <v>-4000.191654819997</v>
       </c>
       <c r="H825">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="826" spans="1:8">
@@ -21894,7 +21894,7 @@
         <v>-4031.814154819996</v>
       </c>
       <c r="H827">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="828" spans="1:8">
@@ -21920,7 +21920,7 @@
         <v>-4064.953954819996</v>
       </c>
       <c r="H828">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="829" spans="1:8">
@@ -21946,7 +21946,7 @@
         <v>-3944.189835089996</v>
       </c>
       <c r="H829">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="830" spans="1:8">
@@ -21972,7 +21972,7 @@
         <v>-3944.399835089996</v>
       </c>
       <c r="H830">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="831" spans="1:8">
@@ -21998,7 +21998,7 @@
         <v>-3944.399835089996</v>
       </c>
       <c r="H831">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="832" spans="1:8">
@@ -22024,7 +22024,7 @@
         <v>-3970.070835089996</v>
       </c>
       <c r="H832">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="833" spans="1:8">
@@ -22050,7 +22050,7 @@
         <v>-3790.952635089996</v>
       </c>
       <c r="H833">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="834" spans="1:8">
@@ -22180,7 +22180,7 @@
         <v>-3438.740118319997</v>
       </c>
       <c r="H838">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="839" spans="1:8">
@@ -22206,7 +22206,7 @@
         <v>-3593.030718319997</v>
       </c>
       <c r="H839">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="840" spans="1:8">
@@ -22232,7 +22232,7 @@
         <v>-3427.171218319997</v>
       </c>
       <c r="H840">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="841" spans="1:8">
@@ -22362,7 +22362,7 @@
         <v>-3426.115244519996</v>
       </c>
       <c r="H845">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="846" spans="1:8">
@@ -22726,7 +22726,7 @@
         <v>-3278.981072449996</v>
       </c>
       <c r="H859">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="860" spans="1:8">
@@ -22752,7 +22752,7 @@
         <v>-3268.879072449996</v>
       </c>
       <c r="H860">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="861" spans="1:8">
@@ -22778,7 +22778,7 @@
         <v>-3611.613172449996</v>
       </c>
       <c r="H861">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="862" spans="1:8">
@@ -22804,7 +22804,7 @@
         <v>-3611.613172449996</v>
       </c>
       <c r="H862">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="863" spans="1:8">
@@ -22830,7 +22830,7 @@
         <v>-3611.613172449996</v>
       </c>
       <c r="H863">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="864" spans="1:8">
@@ -22856,7 +22856,7 @@
         <v>-3750.163672449996</v>
       </c>
       <c r="H864">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="865" spans="1:8">
@@ -22882,7 +22882,7 @@
         <v>-3692.720872449996</v>
       </c>
       <c r="H865">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="866" spans="1:8">
@@ -22908,7 +22908,7 @@
         <v>-3695.590772449996</v>
       </c>
       <c r="H866">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="867" spans="1:8">
@@ -22934,7 +22934,7 @@
         <v>-3545.081072449996</v>
       </c>
       <c r="H867">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="868" spans="1:8">
@@ -22986,7 +22986,7 @@
         <v>-3553.109772449996</v>
       </c>
       <c r="H869">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="870" spans="1:8">
@@ -23012,7 +23012,7 @@
         <v>-3553.109772449996</v>
       </c>
       <c r="H870">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="871" spans="1:8">
@@ -23038,7 +23038,7 @@
         <v>-3555.005472449996</v>
       </c>
       <c r="H871">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="872" spans="1:8">
@@ -23064,7 +23064,7 @@
         <v>-3553.608072449996</v>
       </c>
       <c r="H872">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="873" spans="1:8">
@@ -23090,7 +23090,7 @@
         <v>-3546.275672449996</v>
       </c>
       <c r="H873">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="874" spans="1:8">
@@ -23116,7 +23116,7 @@
         <v>-3546.275672449996</v>
       </c>
       <c r="H874">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="875" spans="1:8">
@@ -23142,7 +23142,7 @@
         <v>-3546.275672449996</v>
       </c>
       <c r="H875">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="876" spans="1:8">
@@ -23636,7 +23636,7 @@
         <v>-2960.689066339997</v>
       </c>
       <c r="H894">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="895" spans="1:8">
@@ -23662,7 +23662,7 @@
         <v>-3039.503800259997</v>
       </c>
       <c r="H895">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="896" spans="1:8">
@@ -23688,7 +23688,7 @@
         <v>-3039.503800259997</v>
       </c>
       <c r="H896">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="897" spans="1:8">
@@ -23714,7 +23714,7 @@
         <v>-3212.514459129997</v>
       </c>
       <c r="H897">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="898" spans="1:8">
@@ -23740,7 +23740,7 @@
         <v>-3185.775496349997</v>
       </c>
       <c r="H898">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="899" spans="1:8">
@@ -23766,7 +23766,7 @@
         <v>-3250.206396349997</v>
       </c>
       <c r="H899">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="900" spans="1:8">
@@ -23792,7 +23792,7 @@
         <v>-3116.343296349997</v>
       </c>
       <c r="H900">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="901" spans="1:8">
@@ -23818,7 +23818,7 @@
         <v>-2985.935696349997</v>
       </c>
       <c r="H901">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="902" spans="1:8">
@@ -23844,7 +23844,7 @@
         <v>-2985.935696349997</v>
       </c>
       <c r="H902">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="903" spans="1:8">
@@ -23870,7 +23870,7 @@
         <v>-3304.279696349997</v>
       </c>
       <c r="H903">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="904" spans="1:8">
@@ -23896,7 +23896,7 @@
         <v>-3164.099896349997</v>
       </c>
       <c r="H904">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="905" spans="1:8">
@@ -23922,7 +23922,7 @@
         <v>-3295.254717519997</v>
       </c>
       <c r="H905">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="906" spans="1:8">
@@ -23948,7 +23948,7 @@
         <v>-3229.135017519997</v>
       </c>
       <c r="H906">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="907" spans="1:8">
@@ -23974,7 +23974,7 @@
         <v>-3104.321102029997</v>
       </c>
       <c r="H907">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="908" spans="1:8">
@@ -24000,7 +24000,7 @@
         <v>-3064.350802029997</v>
       </c>
       <c r="H908">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="909" spans="1:8">
@@ -24026,7 +24026,7 @@
         <v>-3083.196902029998</v>
       </c>
       <c r="H909">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="910" spans="1:8">
@@ -24052,7 +24052,7 @@
         <v>-2918.482481999998</v>
       </c>
       <c r="H910">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="911" spans="1:8">
@@ -24078,7 +24078,7 @@
         <v>-2842.755167819997</v>
       </c>
       <c r="H911">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="912" spans="1:8">
@@ -24104,7 +24104,7 @@
         <v>-2932.723767819998</v>
       </c>
       <c r="H912">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="913" spans="1:8">
@@ -24130,7 +24130,7 @@
         <v>-3218.488596729998</v>
       </c>
       <c r="H913">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="914" spans="1:8">
@@ -24156,7 +24156,7 @@
         <v>-3415.176491859998</v>
       </c>
       <c r="H914">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="915" spans="1:8">
@@ -24182,7 +24182,7 @@
         <v>-3864.352091859998</v>
       </c>
       <c r="H915">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="916" spans="1:8">
@@ -24208,7 +24208,7 @@
         <v>-4079.052591859998</v>
       </c>
       <c r="H916">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="917" spans="1:8">
@@ -24312,7 +24312,7 @@
         <v>-3691.797980509998</v>
       </c>
       <c r="H920">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="921" spans="1:8">
@@ -24962,7 +24962,7 @@
         <v>-4660.816192149998</v>
       </c>
       <c r="H945">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="946" spans="1:8">
@@ -24988,7 +24988,7 @@
         <v>-4521.454017189998</v>
       </c>
       <c r="H946">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="947" spans="1:8">
@@ -25586,7 +25586,7 @@
         <v>-4668.772240949999</v>
       </c>
       <c r="H969">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="970" spans="1:8">
@@ -25638,7 +25638,7 @@
         <v>-4637.555140949999</v>
       </c>
       <c r="H971">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="972" spans="1:8">
@@ -25664,7 +25664,7 @@
         <v>-4637.555140949999</v>
       </c>
       <c r="H972">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="973" spans="1:8">
@@ -25690,7 +25690,7 @@
         <v>-4620.29823514</v>
       </c>
       <c r="H973">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="974" spans="1:8">
@@ -25716,7 +25716,7 @@
         <v>-4620.29823514</v>
       </c>
       <c r="H974">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="975" spans="1:8">
@@ -25794,7 +25794,7 @@
         <v>-4695.35099253</v>
       </c>
       <c r="H977">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="978" spans="1:8">
@@ -25820,7 +25820,7 @@
         <v>-4679.002492529999</v>
       </c>
       <c r="H978">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="979" spans="1:8">
@@ -25846,7 +25846,7 @@
         <v>-4662.25809253</v>
       </c>
       <c r="H979">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="980" spans="1:8">
@@ -25872,7 +25872,7 @@
         <v>-4662.25809253</v>
       </c>
       <c r="H980">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="981" spans="1:8">
@@ -25898,7 +25898,7 @@
         <v>-4662.25809253</v>
       </c>
       <c r="H981">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="982" spans="1:8">
@@ -25924,7 +25924,7 @@
         <v>-4700.94639253</v>
       </c>
       <c r="H982">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="983" spans="1:8">
@@ -25950,7 +25950,7 @@
         <v>-4704.53699253</v>
       </c>
       <c r="H983">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="984" spans="1:8">
@@ -25976,7 +25976,7 @@
         <v>-4754.37899253</v>
       </c>
       <c r="H984">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="985" spans="1:8">
@@ -26002,7 +26002,7 @@
         <v>-4742.50769253</v>
       </c>
       <c r="H985">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="986" spans="1:8">
@@ -26106,7 +26106,7 @@
         <v>-4284.964150590001</v>
       </c>
       <c r="H989">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="990" spans="1:8">
@@ -26132,7 +26132,7 @@
         <v>-4266.855350590001</v>
       </c>
       <c r="H990">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="991" spans="1:8">
@@ -26158,7 +26158,7 @@
         <v>-4338.154850590001</v>
       </c>
       <c r="H991">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="992" spans="1:8">
@@ -26184,7 +26184,7 @@
         <v>-4270.486650590001</v>
       </c>
       <c r="H992">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="993" spans="1:8">
@@ -26210,7 +26210,7 @@
         <v>-4212.936350590001</v>
       </c>
       <c r="H993">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="994" spans="1:8">
@@ -26236,7 +26236,7 @@
         <v>-4269.776750590001</v>
       </c>
       <c r="H994">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="995" spans="1:8">
@@ -26262,7 +26262,7 @@
         <v>-4269.776750590001</v>
       </c>
       <c r="H995">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="996" spans="1:8">
@@ -26288,7 +26288,7 @@
         <v>-4325.803850590001</v>
       </c>
       <c r="H996">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="997" spans="1:8">
@@ -26314,7 +26314,7 @@
         <v>-4325.803850590001</v>
       </c>
       <c r="H997">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="998" spans="1:8">
@@ -26340,7 +26340,7 @@
         <v>-4428.309950590001</v>
       </c>
       <c r="H998">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="999" spans="1:8">
@@ -26366,7 +26366,7 @@
         <v>-4336.399550590001</v>
       </c>
       <c r="H999">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1000" spans="1:8">
@@ -26392,7 +26392,7 @@
         <v>-4350.395350590001</v>
       </c>
       <c r="H1000">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1001" spans="1:8">
@@ -26418,7 +26418,7 @@
         <v>-4328.820850590001</v>
       </c>
       <c r="H1001">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1002" spans="1:8">
@@ -26444,7 +26444,7 @@
         <v>-4285.954150590002</v>
       </c>
       <c r="H1002">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1003" spans="1:8">
@@ -26470,7 +26470,7 @@
         <v>-4285.954150590002</v>
       </c>
       <c r="H1003">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1004" spans="1:8">
@@ -26522,7 +26522,7 @@
         <v>-3966.550068560001</v>
       </c>
       <c r="H1005">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1006" spans="1:8">
@@ -26548,7 +26548,7 @@
         <v>-4186.505568560001</v>
       </c>
       <c r="H1006">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1007" spans="1:8">
@@ -26574,7 +26574,7 @@
         <v>-4230.491668560001</v>
       </c>
       <c r="H1007">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1008" spans="1:8">
@@ -26600,7 +26600,7 @@
         <v>-4276.247836220001</v>
       </c>
       <c r="H1008">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1009" spans="1:8">
@@ -26626,7 +26626,7 @@
         <v>-4228.793436220001</v>
       </c>
       <c r="H1009">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1010" spans="1:8">
@@ -26652,7 +26652,7 @@
         <v>-4306.473836220001</v>
       </c>
       <c r="H1010">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1011" spans="1:8">
@@ -26678,7 +26678,7 @@
         <v>-4333.028991640002</v>
       </c>
       <c r="H1011">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1012" spans="1:8">
@@ -26704,7 +26704,7 @@
         <v>-4290.307791640002</v>
       </c>
       <c r="H1012">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1013" spans="1:8">
@@ -26730,7 +26730,7 @@
         <v>-4121.471014720001</v>
       </c>
       <c r="H1013">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1014" spans="1:8">
@@ -26756,7 +26756,7 @@
         <v>-4121.690008790001</v>
       </c>
       <c r="H1014">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1015" spans="1:8">
@@ -26782,7 +26782,7 @@
         <v>-4130.809978380002</v>
       </c>
       <c r="H1015">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1016" spans="1:8">
@@ -26808,7 +26808,7 @@
         <v>-4102.358775100001</v>
       </c>
       <c r="H1016">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1017" spans="1:8">
@@ -26834,7 +26834,7 @@
         <v>-4014.158347970001</v>
       </c>
       <c r="H1017">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1018" spans="1:8">
@@ -26860,7 +26860,7 @@
         <v>-3993.088017250001</v>
       </c>
       <c r="H1018">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1019" spans="1:8">
@@ -26886,7 +26886,7 @@
         <v>-3993.088017250001</v>
       </c>
       <c r="H1019">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1020" spans="1:8">
@@ -26912,7 +26912,7 @@
         <v>-4047.470240830001</v>
       </c>
       <c r="H1020">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1021" spans="1:8">
@@ -26938,7 +26938,7 @@
         <v>-4061.014540830001</v>
       </c>
       <c r="H1021">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1022" spans="1:8">
@@ -26964,7 +26964,7 @@
         <v>-4177.151740830001</v>
       </c>
       <c r="H1022">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1023" spans="1:8">
@@ -26990,7 +26990,7 @@
         <v>-4251.43245224</v>
       </c>
       <c r="H1023">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1024" spans="1:8">
@@ -27016,7 +27016,7 @@
         <v>-4226.194352240001</v>
       </c>
       <c r="H1024">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1025" spans="1:8">
@@ -27042,7 +27042,7 @@
         <v>-4226.194352240001</v>
       </c>
       <c r="H1025">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1026" spans="1:8">
@@ -27068,7 +27068,7 @@
         <v>-4226.194352240001</v>
       </c>
       <c r="H1026">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1027" spans="1:8">
@@ -27094,7 +27094,7 @@
         <v>-4233.180352240001</v>
       </c>
       <c r="H1027">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1028" spans="1:8">
@@ -27120,7 +27120,7 @@
         <v>-4266.670152240001</v>
       </c>
       <c r="H1028">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1029" spans="1:8">
@@ -27146,7 +27146,7 @@
         <v>-4253.242952240001</v>
       </c>
       <c r="H1029">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1030" spans="1:8">
@@ -27172,7 +27172,7 @@
         <v>-4253.242952240001</v>
       </c>
       <c r="H1030">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1031" spans="1:8">
@@ -27198,7 +27198,7 @@
         <v>-4237.491352240001</v>
       </c>
       <c r="H1031">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1032" spans="1:8">
@@ -27224,7 +27224,7 @@
         <v>-4228.708952240001</v>
       </c>
       <c r="H1032">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1033" spans="1:8">
@@ -27250,7 +27250,7 @@
         <v>-4228.708952240001</v>
       </c>
       <c r="H1033">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1034" spans="1:8">
@@ -27276,7 +27276,7 @@
         <v>-4230.943352240001</v>
       </c>
       <c r="H1034">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1035" spans="1:8">
@@ -27302,7 +27302,7 @@
         <v>-4125.409152240001</v>
       </c>
       <c r="H1035">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1036" spans="1:8">
@@ -27328,7 +27328,7 @@
         <v>-4125.409152240001</v>
       </c>
       <c r="H1036">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1037" spans="1:8">
@@ -27354,7 +27354,7 @@
         <v>-4165.975752240001</v>
       </c>
       <c r="H1037">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1038" spans="1:8">
@@ -27380,7 +27380,7 @@
         <v>-4163.030652240001</v>
       </c>
       <c r="H1038">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1039" spans="1:8">
@@ -27406,7 +27406,7 @@
         <v>-4164.181752240002</v>
       </c>
       <c r="H1039">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1040" spans="1:8">
@@ -27432,7 +27432,7 @@
         <v>-4164.181752240002</v>
       </c>
       <c r="H1040">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1041" spans="1:8">
@@ -27458,7 +27458,7 @@
         <v>-4164.181752240002</v>
       </c>
       <c r="H1041">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1042" spans="1:8">
@@ -27484,7 +27484,7 @@
         <v>-4164.181752240002</v>
       </c>
       <c r="H1042">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1043" spans="1:8">
@@ -27510,7 +27510,7 @@
         <v>-4164.181752240002</v>
       </c>
       <c r="H1043">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1044" spans="1:8">
@@ -27536,7 +27536,7 @@
         <v>-4302.717508770002</v>
       </c>
       <c r="H1044">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1045" spans="1:8">
@@ -27562,7 +27562,7 @@
         <v>-4311.930514830002</v>
       </c>
       <c r="H1045">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1046" spans="1:8">
@@ -27588,7 +27588,7 @@
         <v>-4290.746114830002</v>
       </c>
       <c r="H1046">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1047" spans="1:8">
@@ -27614,7 +27614,7 @@
         <v>-4290.737614830002</v>
       </c>
       <c r="H1047">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1048" spans="1:8">
@@ -27640,7 +27640,7 @@
         <v>-4310.636614830002</v>
       </c>
       <c r="H1048">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1049" spans="1:8">
@@ -27666,7 +27666,7 @@
         <v>-4282.173514830002</v>
       </c>
       <c r="H1049">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1050" spans="1:8">
@@ -27692,7 +27692,7 @@
         <v>-4282.173514830002</v>
       </c>
       <c r="H1050">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1051" spans="1:8">
@@ -27718,7 +27718,7 @@
         <v>-4282.173514830002</v>
       </c>
       <c r="H1051">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1052" spans="1:8">
@@ -27744,7 +27744,7 @@
         <v>-4312.916614830002</v>
       </c>
       <c r="H1052">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1053" spans="1:8">
@@ -27770,7 +27770,7 @@
         <v>-4219.304814830002</v>
       </c>
       <c r="H1053">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1054" spans="1:8">
@@ -27796,7 +27796,7 @@
         <v>-4219.304814830002</v>
       </c>
       <c r="H1054">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1055" spans="1:8">
@@ -27822,7 +27822,7 @@
         <v>-4282.668914830002</v>
       </c>
       <c r="H1055">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1056" spans="1:8">
@@ -27848,7 +27848,7 @@
         <v>-4266.534014830002</v>
       </c>
       <c r="H1056">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1057" spans="1:8">
@@ -27874,7 +27874,7 @@
         <v>-4266.534014830002</v>
       </c>
       <c r="H1057">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1058" spans="1:8">
@@ -27900,7 +27900,7 @@
         <v>-4262.345514830002</v>
       </c>
       <c r="H1058">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1059" spans="1:8">
@@ -27926,7 +27926,7 @@
         <v>-4262.345514830002</v>
       </c>
       <c r="H1059">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1060" spans="1:8">
@@ -27952,7 +27952,7 @@
         <v>-4231.127214830001</v>
       </c>
       <c r="H1060">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1061" spans="1:8">
@@ -27978,7 +27978,7 @@
         <v>-4298.984714830001</v>
       </c>
       <c r="H1061">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1062" spans="1:8">
@@ -28004,7 +28004,7 @@
         <v>-4379.002114830001</v>
       </c>
       <c r="H1062">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1063" spans="1:8">
@@ -28316,7 +28316,7 @@
         <v>-4142.744914830001</v>
       </c>
       <c r="H1074">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1075" spans="1:8">
@@ -28342,7 +28342,7 @@
         <v>-4138.027314830001</v>
       </c>
       <c r="H1075">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1076" spans="1:8">
@@ -28368,7 +28368,7 @@
         <v>-4138.027314830001</v>
       </c>
       <c r="H1076">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1077" spans="1:8">
@@ -28394,7 +28394,7 @@
         <v>-4180.251014830001</v>
       </c>
       <c r="H1077">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1078" spans="1:8">
@@ -28420,7 +28420,7 @@
         <v>-4180.251014830001</v>
       </c>
       <c r="H1078">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1079" spans="1:8">
@@ -28446,7 +28446,7 @@
         <v>-4180.251014830001</v>
       </c>
       <c r="H1079">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1080" spans="1:8">
@@ -28472,7 +28472,7 @@
         <v>-4167.943514830001</v>
       </c>
       <c r="H1080">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1081" spans="1:8">
@@ -28498,7 +28498,7 @@
         <v>-4187.546514830001</v>
       </c>
       <c r="H1081">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1082" spans="1:8">
@@ -28524,7 +28524,7 @@
         <v>-4187.040103350001</v>
       </c>
       <c r="H1082">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1083" spans="1:8">
@@ -28550,7 +28550,7 @@
         <v>-4207.618803350001</v>
       </c>
       <c r="H1083">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1084" spans="1:8">
@@ -28576,7 +28576,7 @@
         <v>-4207.386355320001</v>
       </c>
       <c r="H1084">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1085" spans="1:8">
@@ -28758,7 +28758,7 @@
         <v>-4193.44465532</v>
       </c>
       <c r="H1091">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1092" spans="1:8">
@@ -28784,7 +28784,7 @@
         <v>-4155.82575532</v>
       </c>
       <c r="H1092">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1093" spans="1:8">
@@ -28836,7 +28836,7 @@
         <v>-3937.10430563</v>
       </c>
       <c r="H1094">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1095" spans="1:8">
@@ -28862,7 +28862,7 @@
         <v>-3922.34480563</v>
       </c>
       <c r="H1095">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1096" spans="1:8">
@@ -28888,7 +28888,7 @@
         <v>-3851.64250563</v>
       </c>
       <c r="H1096">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1097" spans="1:8">
@@ -28914,7 +28914,7 @@
         <v>-3847.43500563</v>
       </c>
       <c r="H1097">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1098" spans="1:8">
@@ -28940,7 +28940,7 @@
         <v>-3847.43500563</v>
       </c>
       <c r="H1098">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1099" spans="1:8">
@@ -28966,7 +28966,7 @@
         <v>-4032.89190563</v>
       </c>
       <c r="H1099">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1100" spans="1:8">
@@ -28992,7 +28992,7 @@
         <v>-3994.36920563</v>
       </c>
       <c r="H1100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1101" spans="1:8">
@@ -29018,7 +29018,7 @@
         <v>-3897.8324763</v>
       </c>
       <c r="H1101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1102" spans="1:8">
@@ -29044,7 +29044,7 @@
         <v>-3898.1246763</v>
       </c>
       <c r="H1102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1103" spans="1:8">
@@ -29070,7 +29070,7 @@
         <v>-3934.6945763</v>
       </c>
       <c r="H1103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1104" spans="1:8">
@@ -29096,7 +29096,7 @@
         <v>-3929.7653763</v>
       </c>
       <c r="H1104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1105" spans="1:8">
@@ -29122,7 +29122,7 @@
         <v>-3973.1446763</v>
       </c>
       <c r="H1105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1106" spans="1:8">
@@ -29148,7 +29148,7 @@
         <v>-3956.0429763</v>
       </c>
       <c r="H1106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1107" spans="1:8">
@@ -29174,7 +29174,7 @@
         <v>-3956.0429763</v>
       </c>
       <c r="H1107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1108" spans="1:8">
@@ -29200,7 +29200,7 @@
         <v>-3956.0429763</v>
       </c>
       <c r="H1108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1109" spans="1:8">
@@ -29226,7 +29226,7 @@
         <v>-3980.1557763</v>
       </c>
       <c r="H1109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1110" spans="1:8">
@@ -29252,7 +29252,7 @@
         <v>-3954.332426909999</v>
       </c>
       <c r="H1110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1111" spans="1:8">
@@ -29278,7 +29278,7 @@
         <v>-3954.332426909999</v>
       </c>
       <c r="H1111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1112" spans="1:8">
@@ -29304,7 +29304,7 @@
         <v>-3954.332426909999</v>
       </c>
       <c r="H1112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1113" spans="1:8">
@@ -29330,7 +29330,7 @@
         <v>-3959.15852691</v>
       </c>
       <c r="H1113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1114" spans="1:8">
@@ -29356,7 +29356,7 @@
         <v>-3960.81802691</v>
       </c>
       <c r="H1114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1115" spans="1:8">
@@ -29382,7 +29382,7 @@
         <v>-3969.68942691</v>
       </c>
       <c r="H1115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1116" spans="1:8">
@@ -29408,7 +29408,7 @@
         <v>-3989.14822691</v>
       </c>
       <c r="H1116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1117" spans="1:8">
@@ -29434,7 +29434,7 @@
         <v>-4006.60432691</v>
       </c>
       <c r="H1117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1118" spans="1:8">
@@ -29460,7 +29460,7 @@
         <v>-3912.723576299999</v>
       </c>
       <c r="H1118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1119" spans="1:8">
@@ -29486,7 +29486,7 @@
         <v>-3888.0835763</v>
       </c>
       <c r="H1119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1120" spans="1:8">
@@ -29512,7 +29512,7 @@
         <v>-3920.433776299999</v>
       </c>
       <c r="H1120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1121" spans="1:8">
@@ -29538,7 +29538,7 @@
         <v>-3932.335425689999</v>
       </c>
       <c r="H1121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1122" spans="1:8">
@@ -29564,7 +29564,7 @@
         <v>-3945.456525689999</v>
       </c>
       <c r="H1122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1123" spans="1:8">
@@ -29590,7 +29590,7 @@
         <v>-4053.832725689999</v>
       </c>
       <c r="H1123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1124" spans="1:8">
@@ -29616,7 +29616,7 @@
         <v>-4006.720025689999</v>
       </c>
       <c r="H1124">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1125" spans="1:8">
@@ -29642,7 +29642,7 @@
         <v>-3951.976325689999</v>
       </c>
       <c r="H1125">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1126" spans="1:8">
@@ -29668,7 +29668,7 @@
         <v>-3795.116059929999</v>
       </c>
       <c r="H1126">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1127" spans="1:8">
@@ -29694,7 +29694,7 @@
         <v>-3805.583759929999</v>
       </c>
       <c r="H1127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1128" spans="1:8">
@@ -29720,7 +29720,7 @@
         <v>-3830.58295993</v>
       </c>
       <c r="H1128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1129" spans="1:8">
@@ -29746,7 +29746,7 @@
         <v>-3830.58295993</v>
       </c>
       <c r="H1129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1130" spans="1:8">
@@ -29772,7 +29772,7 @@
         <v>-3830.58295993</v>
       </c>
       <c r="H1130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1131" spans="1:8">
@@ -29798,7 +29798,7 @@
         <v>-3828.021959929999</v>
       </c>
       <c r="H1131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1132" spans="1:8">
@@ -29824,7 +29824,7 @@
         <v>-3841.081459929999</v>
       </c>
       <c r="H1132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1133" spans="1:8">
@@ -29850,7 +29850,7 @@
         <v>-3847.767482839999</v>
       </c>
       <c r="H1133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1134" spans="1:8">
@@ -29876,7 +29876,7 @@
         <v>-3871.939382839999</v>
       </c>
       <c r="H1134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1135" spans="1:8">
@@ -29902,7 +29902,7 @@
         <v>-3871.939382839999</v>
       </c>
       <c r="H1135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1136" spans="1:8">
@@ -29928,7 +29928,7 @@
         <v>-3871.939382839999</v>
       </c>
       <c r="H1136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1137" spans="1:8">
@@ -29954,7 +29954,7 @@
         <v>-3696.851930089999</v>
       </c>
       <c r="H1137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1138" spans="1:8">
@@ -29980,7 +29980,7 @@
         <v>-3693.400617629999</v>
       </c>
       <c r="H1138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1139" spans="1:8">
@@ -30006,7 +30006,7 @@
         <v>-3738.397617629999</v>
       </c>
       <c r="H1139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1140" spans="1:8">
@@ -30032,7 +30032,7 @@
         <v>-3742.766817629999</v>
       </c>
       <c r="H1140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1141" spans="1:8">
@@ -30058,7 +30058,7 @@
         <v>-3739.174917629999</v>
       </c>
       <c r="H1141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1142" spans="1:8">
@@ -30084,7 +30084,7 @@
         <v>-3749.572417629999</v>
       </c>
       <c r="H1142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1143" spans="1:8">
@@ -30110,7 +30110,7 @@
         <v>-3748.616517629999</v>
       </c>
       <c r="H1143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1144" spans="1:8">
@@ -30136,7 +30136,7 @@
         <v>-3750.220117629999</v>
       </c>
       <c r="H1144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1145" spans="1:8">
@@ -30162,7 +30162,7 @@
         <v>-3750.218117629999</v>
       </c>
       <c r="H1145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1146" spans="1:8">
@@ -30214,7 +30214,7 @@
         <v>-3742.743617629999</v>
       </c>
       <c r="H1147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1148" spans="1:8">
@@ -30240,7 +30240,7 @@
         <v>-3744.614017629999</v>
       </c>
       <c r="H1148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1149" spans="1:8">
@@ -30266,7 +30266,7 @@
         <v>-3756.483717629999</v>
       </c>
       <c r="H1149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1150" spans="1:8">
@@ -30292,7 +30292,7 @@
         <v>-3766.972817629999</v>
       </c>
       <c r="H1150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1151" spans="1:8">
@@ -30318,7 +30318,7 @@
         <v>-3759.422317629999</v>
       </c>
       <c r="H1151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1152" spans="1:8">
@@ -30344,7 +30344,7 @@
         <v>-3732.608717629999</v>
       </c>
       <c r="H1152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1153" spans="1:8">
@@ -30448,7 +30448,7 @@
         <v>-3776.746010909999</v>
       </c>
       <c r="H1156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1157" spans="1:8">
@@ -30474,7 +30474,7 @@
         <v>-3782.631410909999</v>
       </c>
       <c r="H1157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1158" spans="1:8">
@@ -30526,7 +30526,7 @@
         <v>-3909.763710909999</v>
       </c>
       <c r="H1159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1160" spans="1:8">
@@ -30552,7 +30552,7 @@
         <v>-3854.654110909999</v>
       </c>
       <c r="H1160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1161" spans="1:8">
@@ -30578,7 +30578,7 @@
         <v>-3879.928910909999</v>
       </c>
       <c r="H1161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1162" spans="1:8">
@@ -30604,7 +30604,7 @@
         <v>-3927.170193189999</v>
       </c>
       <c r="H1162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1163" spans="1:8">
@@ -30630,7 +30630,7 @@
         <v>-3896.145293189999</v>
       </c>
       <c r="H1163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1164" spans="1:8">
@@ -30656,7 +30656,7 @@
         <v>-3896.42729319</v>
       </c>
       <c r="H1164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1165" spans="1:8">
@@ -30682,7 +30682,7 @@
         <v>-3913.727593189999</v>
       </c>
       <c r="H1165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1166" spans="1:8">
@@ -30812,7 +30812,7 @@
         <v>-3905.398141409999</v>
       </c>
       <c r="H1170">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1171" spans="1:8">
@@ -30838,7 +30838,7 @@
         <v>-3905.398141409999</v>
       </c>
       <c r="H1171">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1172" spans="1:8">
@@ -30942,7 +30942,7 @@
         <v>-4123.517041409999</v>
       </c>
       <c r="H1175">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1176" spans="1:8">
@@ -30968,7 +30968,7 @@
         <v>-4132.734541409999</v>
       </c>
       <c r="H1176">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1177" spans="1:8">
@@ -30994,7 +30994,7 @@
         <v>-4132.834941409999</v>
       </c>
       <c r="H1177">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1178" spans="1:8">
@@ -31020,7 +31020,7 @@
         <v>-4138.20644141</v>
       </c>
       <c r="H1178">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1179" spans="1:8">
@@ -31046,7 +31046,7 @@
         <v>-4138.20644141</v>
       </c>
       <c r="H1179">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1180" spans="1:8">
@@ -31072,7 +31072,7 @@
         <v>-4146.68184141</v>
       </c>
       <c r="H1180">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1181" spans="1:8">
@@ -31098,7 +31098,7 @@
         <v>-4197.93634141</v>
       </c>
       <c r="H1181">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1182" spans="1:8">
@@ -31124,7 +31124,7 @@
         <v>-4269.247577919999</v>
       </c>
       <c r="H1182">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1183" spans="1:8">
@@ -31176,7 +31176,7 @@
         <v>-4059.99467792</v>
       </c>
       <c r="H1184">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1185" spans="1:8">
@@ -31202,7 +31202,7 @@
         <v>-3993.078714429999</v>
       </c>
       <c r="H1185">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1186" spans="1:8">
@@ -31228,7 +31228,7 @@
         <v>-3900.227357399999</v>
       </c>
       <c r="H1186">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1187" spans="1:8">
@@ -31254,7 +31254,7 @@
         <v>-3900.227357399999</v>
       </c>
       <c r="H1187">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1188" spans="1:8">
@@ -31280,7 +31280,7 @@
         <v>-3906.801557399999</v>
       </c>
       <c r="H1188">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1189" spans="1:8">
@@ -31306,7 +31306,7 @@
         <v>-3906.797957399999</v>
       </c>
       <c r="H1189">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1190" spans="1:8">
@@ -31332,7 +31332,7 @@
         <v>-3859.239532919999</v>
       </c>
       <c r="H1190">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1191" spans="1:8">
@@ -31358,7 +31358,7 @@
         <v>-3863.433132919999</v>
       </c>
       <c r="H1191">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1192" spans="1:8">
@@ -31384,7 +31384,7 @@
         <v>-3863.434732919999</v>
       </c>
       <c r="H1192">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1193" spans="1:8">
@@ -31410,7 +31410,7 @@
         <v>-3866.262032919999</v>
       </c>
       <c r="H1193">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1194" spans="1:8">
@@ -31436,7 +31436,7 @@
         <v>-3855.183432919999</v>
       </c>
       <c r="H1194">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1195" spans="1:8">
@@ -31462,7 +31462,7 @@
         <v>-3865.819132919999</v>
       </c>
       <c r="H1195">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1196" spans="1:8">
@@ -31488,7 +31488,7 @@
         <v>-3972.326632919999</v>
       </c>
       <c r="H1196">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1197" spans="1:8">
@@ -31514,7 +31514,7 @@
         <v>-3935.766732919999</v>
       </c>
       <c r="H1197">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1198" spans="1:8">
@@ -31540,7 +31540,7 @@
         <v>-3931.462732919999</v>
       </c>
       <c r="H1198">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1199" spans="1:8">
@@ -32268,7 +32268,7 @@
         <v>-4137.244121639998</v>
       </c>
       <c r="H1226">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1227" spans="1:8">
@@ -32294,7 +32294,7 @@
         <v>-4064.016921639999</v>
       </c>
       <c r="H1227">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1228" spans="1:8">
@@ -32320,7 +32320,7 @@
         <v>-4064.342421639999</v>
       </c>
       <c r="H1228">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1229" spans="1:8">
@@ -32346,7 +32346,7 @@
         <v>-3992.133121639999</v>
       </c>
       <c r="H1229">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1230" spans="1:8">
@@ -32398,7 +32398,7 @@
         <v>-3997.214721639999</v>
       </c>
       <c r="H1231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1232" spans="1:8">
@@ -32424,7 +32424,7 @@
         <v>-4021.152621639998</v>
       </c>
       <c r="H1232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1233" spans="1:8">
@@ -32450,7 +32450,7 @@
         <v>-4040.375521639999</v>
       </c>
       <c r="H1233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1234" spans="1:8">
@@ -32476,7 +32476,7 @@
         <v>-4110.969721639998</v>
       </c>
       <c r="H1234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1235" spans="1:8">
@@ -32502,7 +32502,7 @@
         <v>-4127.851021639998</v>
       </c>
       <c r="H1235">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1236" spans="1:8">
@@ -32528,7 +32528,7 @@
         <v>-4127.851021639998</v>
       </c>
       <c r="H1236">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1237" spans="1:8">
@@ -32554,7 +32554,7 @@
         <v>-4128.604721639998</v>
       </c>
       <c r="H1237">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1238" spans="1:8">
@@ -32580,7 +32580,7 @@
         <v>-4036.542721639998</v>
       </c>
       <c r="H1238">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1239" spans="1:8">
@@ -32632,7 +32632,7 @@
         <v>-4016.877021639998</v>
       </c>
       <c r="H1240">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1241" spans="1:8">
@@ -32684,7 +32684,7 @@
         <v>-3908.770321639999</v>
       </c>
       <c r="H1242">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1243" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-24 BSV ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-24 BSV ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>405.8327235400001</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>415.34822354</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>420.16512354</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>475.98122354</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>655.69682416</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>631.6948241600001</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>631.6948241600001</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>631.6948241600001</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>631.64552416</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>630.1544241600001</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>641.3252241600001</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>672.42542416</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>672.42542416</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>587.21752416</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>573.96622416</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>573.96622416</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>476.70022416</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>465.03722416</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>460.73252416</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>435.6146241599999</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>428.15532416</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>428.15532416</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>282.74322416</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>290.74402416</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>290.83402416</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>304.05183628</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>300.72753628</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>300.94753628</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>299.76533628</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>291.76533628</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>232.98575437</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>78.41205436999999</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-7.054945630000006</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>21.78935436999999</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>36.24471216999999</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-179.91438783</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-478.03128783</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-1266.7368595</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-1171.6876595</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-1056.9691595</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-1130.6596595</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-1152.0832595</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-1221.4542595</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-1206.36202087</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-1206.40202087</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-1218.03032214</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-1175.53062214</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-1172.58822203</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-1173.85322262</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-1174.80347944</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-1165.09087944</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-1165.09087944</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-1165.09087944</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-1165.09087944</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-1181.91067944</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-1178.06797944</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-1177.74797944</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-1194.92369251</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-1238.3131028</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-1237.9031028</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-1238.3134028</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-1240.6393028</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-1238.4703028</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-1237.2745028</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-1237.7313028</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-1234.16822743</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-1234.18142743</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-1234.18142743</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-1224.60442743</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-1230.14402743</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-1232.18292743</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-1232.18292743</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-1237.42062743</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-1395.74152743</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-1379.76242634</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-1395.41382634</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-1395.41382634</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-1389.41592634</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-1420.53702634</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-1401.54352634</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-1412.39152634</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-1389.21322634</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-1390.13182634</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-1398.45132634</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-1405.88102634</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-1409.59542634</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-1404.64090689</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-1378.955416739999</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-1378.955416739999</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-1378.955416739999</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-1375.926716739999</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-1375.926716739999</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-1378.132416739999</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-1378.132416739999</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-1378.132416739999</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-1346.638316739999</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-1352.557816739999</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-1443.568516739999</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-1444.568516739999</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-1453.08801674</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-1440.93591674</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-1433.06181674</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-1386.86011674</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-1399.88821674</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-1395.07611674</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-1365.05232737</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-1365.05232737</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-1351.08242737</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-1343.20182737</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-1347.20472737</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-1343.50542737</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-1109.19622737</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-1112.78391972</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-1102.51741972</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-1033.92501688</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-1031.50231688</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-1031.50231688</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-1086.97641688</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-1046.89311688</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-1037.22341688</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-1123.89561688</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-1117.80571688</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-1215.45911688</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-1200.60445395</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-1458.18055395</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-1460.20275395</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-1458.62235395</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-1411.31995395</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-1411.31995395</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-1411.37815395</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-1405.08625395</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-1407.47885395</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-1407.47885395</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-1407.47885395</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-1394.44505395</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-1394.44505395</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-1374.05265339</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-1374.05265339</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-1388.28415339</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-1384.96385339</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-1384.96385339</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-1391.83475339</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-1385.15155339</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-1390.29845339</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-1388.75135339</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-1388.75135339</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-1411.70755339</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-1411.70755339</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-1411.70755339</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-1412.70755339</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-1412.70755339</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-1411.51215339</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-1410.55755339</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-1397.41821463</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-1400.24231463</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-1400.24231463</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-1400.24231463</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-1509.335914629999</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-1702.267414629999</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-1686.804513469999</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-1690.634513469999</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-1690.634513469999</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-1690.544513469999</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-1687.255713469999</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-1692.148913469999</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-1700.097711169999</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-1671.561006969999</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-1671.561006969999</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-1674.336006969999</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-1663.568806969999</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-1663.568806969999</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-1663.568806969999</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-1660.955706969999</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-1660.955706969999</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-1663.584706969999</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-1670.141106969999</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-1670.031106969999</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-1662.789806969999</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-1666.517506969999</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-1666.517506969999</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-1678.530006969999</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-1672.603506969999</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-1597.845606969999</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-1611.126906969999</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-1613.982606969999</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-1693.479806969999</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>-1588.782006969999</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>-1574.478606969999</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-1564.331306969999</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>-1565.306406969999</v>
       </c>
       <c r="H369">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-1555.338574759999</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-1510.587173679999</v>
       </c>
       <c r="H373">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-1494.319474569999</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-1438.277774179999</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-1417.279176459999</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-1436.411975079999</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-1398.644675079999</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-1493.926840939999</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-1492.591440939999</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-1496.431740939999</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-1498.230240939999</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-1498.14024094</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-1483.66833866</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-1420.01363866</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-1037.83423866</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-1138.72123082</v>
       </c>
       <c r="H387">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-1238.71735074</v>
       </c>
       <c r="H388">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-1243.04665074</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>-1233.33713715</v>
       </c>
       <c r="H390">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>-1233.33713715</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>-1233.33713715</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>-1233.78993715</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>-1248.83273715</v>
       </c>
       <c r="H394">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>-1150.57483715</v>
       </c>
       <c r="H395">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>-1150.57483715</v>
       </c>
       <c r="H396">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>-1150.57483715</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>-1150.57483715</v>
       </c>
       <c r="H398">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>-1145.42223715</v>
       </c>
       <c r="H399">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>-1145.46033715</v>
       </c>
       <c r="H400">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>-1144.44683715</v>
       </c>
       <c r="H401">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>-1258.31963715</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>-960.4477371499999</v>
       </c>
       <c r="H403">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>-960.4477371499999</v>
       </c>
       <c r="H404">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>-968.3074371499998</v>
       </c>
       <c r="H405">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>-968.3074371499998</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>-1054.54833715</v>
       </c>
       <c r="H407">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>-1113.63233715</v>
       </c>
       <c r="H408">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>-1084.64553715</v>
       </c>
       <c r="H409">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-1084.81620814</v>
       </c>
       <c r="H410">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-1287.68540814</v>
       </c>
       <c r="H411">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-1272.49550814</v>
       </c>
       <c r="H412">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-1272.61550814</v>
       </c>
       <c r="H413">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-1275.89470814</v>
       </c>
       <c r="H414">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-1345.12580814</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>-1308.96180814</v>
       </c>
       <c r="H416">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>-1346.30760814</v>
       </c>
       <c r="H417">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-1334.50720814</v>
       </c>
       <c r="H418">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>-1341.27380814</v>
       </c>
       <c r="H419">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-1344.21360814</v>
       </c>
       <c r="H420">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-1361.90920814</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>-1359.99420814</v>
       </c>
       <c r="H423">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>-1360.58490814</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-1360.58490814</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>-1363.98720814</v>
       </c>
       <c r="H426">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>-1363.98720814</v>
       </c>
       <c r="H427">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>-1659.380602439999</v>
       </c>
       <c r="H457">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -15550,7 +15550,7 @@
         <v>-2351.750501649998</v>
       </c>
       <c r="H583">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -15576,7 +15576,7 @@
         <v>-2275.059542649998</v>
       </c>
       <c r="H584">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>-2356.431243669997</v>
       </c>
       <c r="H585">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>-2427.550943669998</v>
       </c>
       <c r="H586">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -15654,7 +15654,7 @@
         <v>-2260.656343669998</v>
       </c>
       <c r="H587">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -15680,7 +15680,7 @@
         <v>-2067.591143669998</v>
       </c>
       <c r="H588">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -15706,7 +15706,7 @@
         <v>-2330.052243669998</v>
       </c>
       <c r="H589">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -15732,7 +15732,7 @@
         <v>-2330.052243669998</v>
       </c>
       <c r="H590">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -15758,7 +15758,7 @@
         <v>-2324.700329269997</v>
       </c>
       <c r="H591">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -15784,7 +15784,7 @@
         <v>-2277.887343669997</v>
       </c>
       <c r="H592">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>-2367.019434329997</v>
       </c>
       <c r="H593">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>-2434.358834329997</v>
       </c>
       <c r="H594">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>-2338.364434329997</v>
       </c>
       <c r="H595">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -15888,7 +15888,7 @@
         <v>-2226.385634329997</v>
       </c>
       <c r="H596">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -15914,7 +15914,7 @@
         <v>-2220.001034329997</v>
       </c>
       <c r="H597">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -15940,7 +15940,7 @@
         <v>-2366.730148729997</v>
       </c>
       <c r="H598">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -15966,7 +15966,7 @@
         <v>-2384.633948729997</v>
       </c>
       <c r="H599">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -15992,7 +15992,7 @@
         <v>-2384.633948729997</v>
       </c>
       <c r="H600">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -16018,7 +16018,7 @@
         <v>-2381.102548129998</v>
       </c>
       <c r="H601">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>-2439.071348129998</v>
       </c>
       <c r="H602">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>-2439.071348129998</v>
       </c>
       <c r="H603">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16096,7 +16096,7 @@
         <v>-2436.665048129998</v>
       </c>
       <c r="H604">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>-2405.842348439998</v>
       </c>
       <c r="H605">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>-2526.121648439998</v>
       </c>
       <c r="H606">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>-2506.030448439998</v>
       </c>
       <c r="H607">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>-2491.992348439998</v>
       </c>
       <c r="H608">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>-2532.062348439998</v>
       </c>
       <c r="H609">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>-2591.723548439998</v>
       </c>
       <c r="H610">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>-2521.692948439998</v>
       </c>
       <c r="H611">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>-2545.459348439998</v>
       </c>
       <c r="H612">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>-2554.772148439998</v>
       </c>
       <c r="H613">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>-2554.683448439998</v>
       </c>
       <c r="H614">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>-2599.574548439998</v>
       </c>
       <c r="H615">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>-2565.686548439998</v>
       </c>
       <c r="H616">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>-2353.680148439998</v>
       </c>
       <c r="H617">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -16460,7 +16460,7 @@
         <v>-2394.611248439998</v>
       </c>
       <c r="H618">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>-2168.921148439998</v>
       </c>
       <c r="H619">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>-2187.753348439998</v>
       </c>
       <c r="H620">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>-1597.290548439998</v>
       </c>
       <c r="H622">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>-1596.287748439998</v>
       </c>
       <c r="H623">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>-1586.530148439998</v>
       </c>
       <c r="H624">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>-1716.348048439998</v>
       </c>
       <c r="H625">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>-1660.992494209998</v>
       </c>
       <c r="H626">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>-1657.989394209998</v>
       </c>
       <c r="H629">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>-1613.548248439997</v>
       </c>
       <c r="H636">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>-1846.820909279997</v>
       </c>
       <c r="H655">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>-1786.518709279997</v>
       </c>
       <c r="H657">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>-1858.485609279997</v>
       </c>
       <c r="H658">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>-1858.480209279997</v>
       </c>
       <c r="H659">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>-1870.151409279997</v>
       </c>
       <c r="H660">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>-1912.753509279997</v>
       </c>
       <c r="H661">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>-1881.350709279997</v>
       </c>
       <c r="H662">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>-1891.491909279997</v>
       </c>
       <c r="H663">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -19528,7 +19528,7 @@
         <v>-5330.021521259996</v>
       </c>
       <c r="H736">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="737" spans="1:8">
@@ -19554,7 +19554,7 @@
         <v>-5144.772421259996</v>
       </c>
       <c r="H737">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="738" spans="1:8">
@@ -19580,7 +19580,7 @@
         <v>-4788.819121259996</v>
       </c>
       <c r="H738">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="739" spans="1:8">
@@ -20126,7 +20126,7 @@
         <v>-4851.324953759998</v>
       </c>
       <c r="H759">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="760" spans="1:8">
@@ -20152,7 +20152,7 @@
         <v>-5122.773953759997</v>
       </c>
       <c r="H760">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="761" spans="1:8">
@@ -20204,7 +20204,7 @@
         <v>-5030.336567709997</v>
       </c>
       <c r="H762">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="763" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>-4792.375164099997</v>
       </c>
       <c r="H763">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -20256,7 +20256,7 @@
         <v>-4383.068823509997</v>
       </c>
       <c r="H764">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="765" spans="1:8">
@@ -20282,7 +20282,7 @@
         <v>-4570.602594949997</v>
       </c>
       <c r="H765">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="766" spans="1:8">
@@ -20308,7 +20308,7 @@
         <v>-4486.072294949997</v>
       </c>
       <c r="H766">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="767" spans="1:8">
@@ -20334,7 +20334,7 @@
         <v>-4686.203166609997</v>
       </c>
       <c r="H767">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="768" spans="1:8">
@@ -20360,7 +20360,7 @@
         <v>-4652.843266609996</v>
       </c>
       <c r="H768">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="769" spans="1:8">
@@ -20386,7 +20386,7 @@
         <v>-4722.044666609996</v>
       </c>
       <c r="H769">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="770" spans="1:8">
@@ -20412,7 +20412,7 @@
         <v>-4747.284766609996</v>
       </c>
       <c r="H770">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="771" spans="1:8">
@@ -20438,7 +20438,7 @@
         <v>-4838.198366609996</v>
       </c>
       <c r="H771">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="772" spans="1:8">
@@ -20464,7 +20464,7 @@
         <v>-4729.104666609996</v>
       </c>
       <c r="H772">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="773" spans="1:8">
@@ -20490,7 +20490,7 @@
         <v>-4644.056166609996</v>
       </c>
       <c r="H773">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="774" spans="1:8">
@@ -20516,7 +20516,7 @@
         <v>-4597.664566609996</v>
       </c>
       <c r="H774">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="775" spans="1:8">
@@ -20542,7 +20542,7 @@
         <v>-4375.738666609996</v>
       </c>
       <c r="H775">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="776" spans="1:8">
@@ -20568,7 +20568,7 @@
         <v>-4143.811366609995</v>
       </c>
       <c r="H776">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="777" spans="1:8">
@@ -20594,7 +20594,7 @@
         <v>-4005.992629499995</v>
       </c>
       <c r="H777">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="778" spans="1:8">
@@ -20620,7 +20620,7 @@
         <v>-4005.992629499995</v>
       </c>
       <c r="H778">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="779" spans="1:8">
@@ -20646,7 +20646,7 @@
         <v>-4188.196382139996</v>
       </c>
       <c r="H779">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="780" spans="1:8">
@@ -20672,7 +20672,7 @@
         <v>-4250.688082139995</v>
       </c>
       <c r="H780">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="781" spans="1:8">
@@ -20698,7 +20698,7 @@
         <v>-4336.252708929996</v>
       </c>
       <c r="H781">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="782" spans="1:8">
@@ -20724,7 +20724,7 @@
         <v>-4336.252708929996</v>
       </c>
       <c r="H782">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="783" spans="1:8">
@@ -20750,7 +20750,7 @@
         <v>-4374.113208929995</v>
       </c>
       <c r="H783">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="784" spans="1:8">
@@ -20776,7 +20776,7 @@
         <v>-4303.242808929996</v>
       </c>
       <c r="H784">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="785" spans="1:8">
@@ -20802,7 +20802,7 @@
         <v>-4409.837008929995</v>
       </c>
       <c r="H785">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="786" spans="1:8">
@@ -20828,7 +20828,7 @@
         <v>-4390.818408929995</v>
       </c>
       <c r="H786">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="787" spans="1:8">
@@ -20854,7 +20854,7 @@
         <v>-4395.818408929995</v>
       </c>
       <c r="H787">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="788" spans="1:8">
@@ -20880,7 +20880,7 @@
         <v>-4394.686008929994</v>
       </c>
       <c r="H788">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="789" spans="1:8">
@@ -20906,7 +20906,7 @@
         <v>-4402.948308929995</v>
       </c>
       <c r="H789">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="790" spans="1:8">
@@ -20932,7 +20932,7 @@
         <v>-4354.715108929995</v>
       </c>
       <c r="H790">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="791" spans="1:8">
@@ -20958,7 +20958,7 @@
         <v>-4362.053008929995</v>
       </c>
       <c r="H791">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="792" spans="1:8">
@@ -20984,7 +20984,7 @@
         <v>-4282.994208929996</v>
       </c>
       <c r="H792">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="793" spans="1:8">
@@ -21010,7 +21010,7 @@
         <v>-4282.994208929996</v>
       </c>
       <c r="H793">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="794" spans="1:8">
@@ -21036,7 +21036,7 @@
         <v>-4230.912008929996</v>
       </c>
       <c r="H794">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="795" spans="1:8">
@@ -21062,7 +21062,7 @@
         <v>-4245.738370459996</v>
       </c>
       <c r="H795">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="796" spans="1:8">
@@ -21088,7 +21088,7 @@
         <v>-4283.658070459996</v>
       </c>
       <c r="H796">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="797" spans="1:8">
@@ -21114,7 +21114,7 @@
         <v>-4255.208070459997</v>
       </c>
       <c r="H797">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="798" spans="1:8">
@@ -21140,7 +21140,7 @@
         <v>-4316.223370459997</v>
       </c>
       <c r="H798">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="799" spans="1:8">
@@ -21166,7 +21166,7 @@
         <v>-4316.223370459997</v>
       </c>
       <c r="H799">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="800" spans="1:8">
@@ -21270,7 +21270,7 @@
         <v>-4191.799041829996</v>
       </c>
       <c r="H803">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="804" spans="1:8">
@@ -21296,7 +21296,7 @@
         <v>-4282.211941829996</v>
       </c>
       <c r="H804">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="805" spans="1:8">
@@ -21322,7 +21322,7 @@
         <v>-4290.197841829996</v>
       </c>
       <c r="H805">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="806" spans="1:8">
@@ -21374,7 +21374,7 @@
         <v>-4302.469441829996</v>
       </c>
       <c r="H807">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="808" spans="1:8">
@@ -21608,7 +21608,7 @@
         <v>-4690.046354819996</v>
       </c>
       <c r="H816">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="817" spans="1:8">
@@ -21634,7 +21634,7 @@
         <v>-4428.402654819996</v>
       </c>
       <c r="H817">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="818" spans="1:8">
@@ -21660,7 +21660,7 @@
         <v>-4428.402654819996</v>
       </c>
       <c r="H818">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="819" spans="1:8">
@@ -21686,7 +21686,7 @@
         <v>-4158.312854819997</v>
       </c>
       <c r="H819">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="820" spans="1:8">
@@ -21712,7 +21712,7 @@
         <v>-3973.357954819996</v>
       </c>
       <c r="H820">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="821" spans="1:8">
@@ -21738,7 +21738,7 @@
         <v>-3939.280454819997</v>
       </c>
       <c r="H821">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="822" spans="1:8">
@@ -21764,7 +21764,7 @@
         <v>-3996.579654819996</v>
       </c>
       <c r="H822">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="823" spans="1:8">
@@ -21790,7 +21790,7 @@
         <v>-3935.108854819996</v>
       </c>
       <c r="H823">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="824" spans="1:8">
@@ -21816,7 +21816,7 @@
         <v>-3965.982254819996</v>
       </c>
       <c r="H824">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="825" spans="1:8">
@@ -21842,7 +21842,7 @@
         <v>-4000.191654819997</v>
       </c>
       <c r="H825">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="826" spans="1:8">
@@ -21868,7 +21868,7 @@
         <v>-3962.202054819997</v>
       </c>
       <c r="H826">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="827" spans="1:8">
@@ -21894,7 +21894,7 @@
         <v>-4031.814154819996</v>
       </c>
       <c r="H827">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="828" spans="1:8">
@@ -21920,7 +21920,7 @@
         <v>-4064.953954819996</v>
       </c>
       <c r="H828">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="829" spans="1:8">
@@ -21946,7 +21946,7 @@
         <v>-3944.189835089996</v>
       </c>
       <c r="H829">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="830" spans="1:8">
@@ -21972,7 +21972,7 @@
         <v>-3944.399835089996</v>
       </c>
       <c r="H830">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="831" spans="1:8">
@@ -21998,7 +21998,7 @@
         <v>-3944.399835089996</v>
       </c>
       <c r="H831">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="832" spans="1:8">
@@ -22024,7 +22024,7 @@
         <v>-3970.070835089996</v>
       </c>
       <c r="H832">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="833" spans="1:8">
@@ -22050,7 +22050,7 @@
         <v>-3790.952635089996</v>
       </c>
       <c r="H833">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="834" spans="1:8">
@@ -22180,7 +22180,7 @@
         <v>-3438.740118319997</v>
       </c>
       <c r="H838">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="839" spans="1:8">
@@ -22206,7 +22206,7 @@
         <v>-3593.030718319997</v>
       </c>
       <c r="H839">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="840" spans="1:8">
@@ -22232,7 +22232,7 @@
         <v>-3427.171218319997</v>
       </c>
       <c r="H840">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="841" spans="1:8">
@@ -22362,7 +22362,7 @@
         <v>-3426.115244519996</v>
       </c>
       <c r="H845">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="846" spans="1:8">
@@ -22726,7 +22726,7 @@
         <v>-3278.981072449996</v>
       </c>
       <c r="H859">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="860" spans="1:8">
@@ -22752,7 +22752,7 @@
         <v>-3268.879072449996</v>
       </c>
       <c r="H860">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="861" spans="1:8">
@@ -22778,7 +22778,7 @@
         <v>-3611.613172449996</v>
       </c>
       <c r="H861">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="862" spans="1:8">
@@ -22804,7 +22804,7 @@
         <v>-3611.613172449996</v>
       </c>
       <c r="H862">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="863" spans="1:8">
@@ -22830,7 +22830,7 @@
         <v>-3611.613172449996</v>
       </c>
       <c r="H863">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="864" spans="1:8">
@@ -22856,7 +22856,7 @@
         <v>-3750.163672449996</v>
       </c>
       <c r="H864">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="865" spans="1:8">
@@ -22882,7 +22882,7 @@
         <v>-3692.720872449996</v>
       </c>
       <c r="H865">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="866" spans="1:8">
@@ -22908,7 +22908,7 @@
         <v>-3695.590772449996</v>
       </c>
       <c r="H866">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="867" spans="1:8">
@@ -22934,7 +22934,7 @@
         <v>-3545.081072449996</v>
       </c>
       <c r="H867">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="868" spans="1:8">
@@ -22986,7 +22986,7 @@
         <v>-3553.109772449996</v>
       </c>
       <c r="H869">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="870" spans="1:8">
@@ -23012,7 +23012,7 @@
         <v>-3553.109772449996</v>
       </c>
       <c r="H870">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="871" spans="1:8">
@@ -23038,7 +23038,7 @@
         <v>-3555.005472449996</v>
       </c>
       <c r="H871">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="872" spans="1:8">
@@ -23064,7 +23064,7 @@
         <v>-3553.608072449996</v>
       </c>
       <c r="H872">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="873" spans="1:8">
@@ -23090,7 +23090,7 @@
         <v>-3546.275672449996</v>
       </c>
       <c r="H873">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="874" spans="1:8">
@@ -23116,7 +23116,7 @@
         <v>-3546.275672449996</v>
       </c>
       <c r="H874">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="875" spans="1:8">
@@ -23142,7 +23142,7 @@
         <v>-3546.275672449996</v>
       </c>
       <c r="H875">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="876" spans="1:8">
@@ -23636,7 +23636,7 @@
         <v>-2960.689066339997</v>
       </c>
       <c r="H894">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="895" spans="1:8">
@@ -23662,7 +23662,7 @@
         <v>-3039.503800259997</v>
       </c>
       <c r="H895">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="896" spans="1:8">
@@ -23688,7 +23688,7 @@
         <v>-3039.503800259997</v>
       </c>
       <c r="H896">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="897" spans="1:8">
@@ -23714,7 +23714,7 @@
         <v>-3212.514459129997</v>
       </c>
       <c r="H897">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="898" spans="1:8">
@@ -23740,7 +23740,7 @@
         <v>-3185.775496349997</v>
       </c>
       <c r="H898">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="899" spans="1:8">
@@ -23766,7 +23766,7 @@
         <v>-3250.206396349997</v>
       </c>
       <c r="H899">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="900" spans="1:8">
@@ -23792,7 +23792,7 @@
         <v>-3116.343296349997</v>
       </c>
       <c r="H900">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="901" spans="1:8">
@@ -23818,7 +23818,7 @@
         <v>-2985.935696349997</v>
       </c>
       <c r="H901">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="902" spans="1:8">
@@ -23844,7 +23844,7 @@
         <v>-2985.935696349997</v>
       </c>
       <c r="H902">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="903" spans="1:8">
@@ -23870,7 +23870,7 @@
         <v>-3304.279696349997</v>
       </c>
       <c r="H903">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="904" spans="1:8">
@@ -23896,7 +23896,7 @@
         <v>-3164.099896349997</v>
       </c>
       <c r="H904">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="905" spans="1:8">
@@ -23922,7 +23922,7 @@
         <v>-3295.254717519997</v>
       </c>
       <c r="H905">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="906" spans="1:8">
@@ -23948,7 +23948,7 @@
         <v>-3229.135017519997</v>
       </c>
       <c r="H906">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="907" spans="1:8">
@@ -23974,7 +23974,7 @@
         <v>-3104.321102029997</v>
       </c>
       <c r="H907">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="908" spans="1:8">
@@ -24000,7 +24000,7 @@
         <v>-3064.350802029997</v>
       </c>
       <c r="H908">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="909" spans="1:8">
@@ -24026,7 +24026,7 @@
         <v>-3083.196902029998</v>
       </c>
       <c r="H909">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="910" spans="1:8">
@@ -24052,7 +24052,7 @@
         <v>-2918.482481999998</v>
       </c>
       <c r="H910">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="911" spans="1:8">
@@ -24078,7 +24078,7 @@
         <v>-2842.755167819997</v>
       </c>
       <c r="H911">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="912" spans="1:8">
@@ -24104,7 +24104,7 @@
         <v>-2932.723767819998</v>
       </c>
       <c r="H912">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="913" spans="1:8">
@@ -24130,7 +24130,7 @@
         <v>-3218.488596729998</v>
       </c>
       <c r="H913">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="914" spans="1:8">
@@ -24156,7 +24156,7 @@
         <v>-3415.176491859998</v>
       </c>
       <c r="H914">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="915" spans="1:8">
@@ -24182,7 +24182,7 @@
         <v>-3864.352091859998</v>
       </c>
       <c r="H915">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="916" spans="1:8">
@@ -24208,7 +24208,7 @@
         <v>-4079.052591859998</v>
       </c>
       <c r="H916">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="917" spans="1:8">
@@ -24312,7 +24312,7 @@
         <v>-3691.797980509998</v>
       </c>
       <c r="H920">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="921" spans="1:8">
@@ -24962,7 +24962,7 @@
         <v>-4660.816192149998</v>
       </c>
       <c r="H945">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="946" spans="1:8">
@@ -24988,7 +24988,7 @@
         <v>-4521.454017189998</v>
       </c>
       <c r="H946">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="947" spans="1:8">
@@ -25586,7 +25586,7 @@
         <v>-4668.772240949999</v>
       </c>
       <c r="H969">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="970" spans="1:8">
@@ -25612,7 +25612,7 @@
         <v>-4674.615840949999</v>
       </c>
       <c r="H970">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="971" spans="1:8">
@@ -25638,7 +25638,7 @@
         <v>-4637.555140949999</v>
       </c>
       <c r="H971">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="972" spans="1:8">
@@ -25664,7 +25664,7 @@
         <v>-4637.555140949999</v>
       </c>
       <c r="H972">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="973" spans="1:8">
@@ -25690,7 +25690,7 @@
         <v>-4620.29823514</v>
       </c>
       <c r="H973">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="974" spans="1:8">
@@ -25716,7 +25716,7 @@
         <v>-4620.29823514</v>
       </c>
       <c r="H974">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="975" spans="1:8">
@@ -25742,7 +25742,7 @@
         <v>-4618.41883514</v>
       </c>
       <c r="H975">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="976" spans="1:8">
@@ -25768,7 +25768,7 @@
         <v>-4647.87719253</v>
       </c>
       <c r="H976">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="977" spans="1:8">
@@ -25794,7 +25794,7 @@
         <v>-4695.35099253</v>
       </c>
       <c r="H977">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="978" spans="1:8">
@@ -25820,7 +25820,7 @@
         <v>-4679.002492529999</v>
       </c>
       <c r="H978">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="979" spans="1:8">
@@ -25846,7 +25846,7 @@
         <v>-4662.25809253</v>
       </c>
       <c r="H979">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="980" spans="1:8">
@@ -25872,7 +25872,7 @@
         <v>-4662.25809253</v>
       </c>
       <c r="H980">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="981" spans="1:8">
@@ -25898,7 +25898,7 @@
         <v>-4662.25809253</v>
       </c>
       <c r="H981">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="982" spans="1:8">
@@ -25924,7 +25924,7 @@
         <v>-4700.94639253</v>
       </c>
       <c r="H982">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="983" spans="1:8">
@@ -25950,7 +25950,7 @@
         <v>-4704.53699253</v>
       </c>
       <c r="H983">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="984" spans="1:8">
@@ -25976,7 +25976,7 @@
         <v>-4754.37899253</v>
       </c>
       <c r="H984">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="985" spans="1:8">
@@ -26002,7 +26002,7 @@
         <v>-4742.50769253</v>
       </c>
       <c r="H985">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="986" spans="1:8">
@@ -26106,7 +26106,7 @@
         <v>-4284.964150590001</v>
       </c>
       <c r="H989">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="990" spans="1:8">
@@ -26132,7 +26132,7 @@
         <v>-4266.855350590001</v>
       </c>
       <c r="H990">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="991" spans="1:8">
@@ -26158,7 +26158,7 @@
         <v>-4338.154850590001</v>
       </c>
       <c r="H991">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="992" spans="1:8">
@@ -26184,7 +26184,7 @@
         <v>-4270.486650590001</v>
       </c>
       <c r="H992">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="993" spans="1:8">
@@ -26210,7 +26210,7 @@
         <v>-4212.936350590001</v>
       </c>
       <c r="H993">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="994" spans="1:8">
@@ -26236,7 +26236,7 @@
         <v>-4269.776750590001</v>
       </c>
       <c r="H994">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="995" spans="1:8">
@@ -26262,7 +26262,7 @@
         <v>-4269.776750590001</v>
       </c>
       <c r="H995">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="996" spans="1:8">
@@ -26288,7 +26288,7 @@
         <v>-4325.803850590001</v>
       </c>
       <c r="H996">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="997" spans="1:8">
@@ -26314,7 +26314,7 @@
         <v>-4325.803850590001</v>
       </c>
       <c r="H997">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="998" spans="1:8">
@@ -26340,7 +26340,7 @@
         <v>-4428.309950590001</v>
       </c>
       <c r="H998">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="999" spans="1:8">
@@ -26366,7 +26366,7 @@
         <v>-4336.399550590001</v>
       </c>
       <c r="H999">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1000" spans="1:8">
@@ -26392,7 +26392,7 @@
         <v>-4350.395350590001</v>
       </c>
       <c r="H1000">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1001" spans="1:8">
@@ -26418,7 +26418,7 @@
         <v>-4328.820850590001</v>
       </c>
       <c r="H1001">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1002" spans="1:8">
@@ -26444,7 +26444,7 @@
         <v>-4285.954150590002</v>
       </c>
       <c r="H1002">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1003" spans="1:8">
@@ -26470,7 +26470,7 @@
         <v>-4285.954150590002</v>
       </c>
       <c r="H1003">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1004" spans="1:8">
@@ -26496,7 +26496,7 @@
         <v>-4128.113750590001</v>
       </c>
       <c r="H1004">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1005" spans="1:8">
@@ -26522,7 +26522,7 @@
         <v>-3966.550068560001</v>
       </c>
       <c r="H1005">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1006" spans="1:8">
@@ -26548,7 +26548,7 @@
         <v>-4186.505568560001</v>
       </c>
       <c r="H1006">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1007" spans="1:8">
@@ -26574,7 +26574,7 @@
         <v>-4230.491668560001</v>
       </c>
       <c r="H1007">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1008" spans="1:8">
@@ -26600,7 +26600,7 @@
         <v>-4276.247836220001</v>
       </c>
       <c r="H1008">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1009" spans="1:8">
@@ -26626,7 +26626,7 @@
         <v>-4228.793436220001</v>
       </c>
       <c r="H1009">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1010" spans="1:8">
@@ -26652,7 +26652,7 @@
         <v>-4306.473836220001</v>
       </c>
       <c r="H1010">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1011" spans="1:8">
@@ -26678,7 +26678,7 @@
         <v>-4333.028991640002</v>
       </c>
       <c r="H1011">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1012" spans="1:8">
@@ -26704,7 +26704,7 @@
         <v>-4290.307791640002</v>
       </c>
       <c r="H1012">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1013" spans="1:8">
@@ -26730,7 +26730,7 @@
         <v>-4121.471014720001</v>
       </c>
       <c r="H1013">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1014" spans="1:8">
@@ -26756,7 +26756,7 @@
         <v>-4121.690008790001</v>
       </c>
       <c r="H1014">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1015" spans="1:8">
@@ -26782,7 +26782,7 @@
         <v>-4130.809978380002</v>
       </c>
       <c r="H1015">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1016" spans="1:8">
@@ -26808,7 +26808,7 @@
         <v>-4102.358775100001</v>
       </c>
       <c r="H1016">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1017" spans="1:8">
@@ -26834,7 +26834,7 @@
         <v>-4014.158347970001</v>
       </c>
       <c r="H1017">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1018" spans="1:8">
@@ -26860,7 +26860,7 @@
         <v>-3993.088017250001</v>
       </c>
       <c r="H1018">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1019" spans="1:8">
@@ -26886,7 +26886,7 @@
         <v>-3993.088017250001</v>
       </c>
       <c r="H1019">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1020" spans="1:8">
@@ -26912,7 +26912,7 @@
         <v>-4047.470240830001</v>
       </c>
       <c r="H1020">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1021" spans="1:8">
@@ -26938,7 +26938,7 @@
         <v>-4061.014540830001</v>
       </c>
       <c r="H1021">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1022" spans="1:8">
@@ -26964,7 +26964,7 @@
         <v>-4177.151740830001</v>
       </c>
       <c r="H1022">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1023" spans="1:8">
@@ -26990,7 +26990,7 @@
         <v>-4251.43245224</v>
       </c>
       <c r="H1023">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1024" spans="1:8">
@@ -27016,7 +27016,7 @@
         <v>-4226.194352240001</v>
       </c>
       <c r="H1024">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1025" spans="1:8">
@@ -27042,7 +27042,7 @@
         <v>-4226.194352240001</v>
       </c>
       <c r="H1025">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1026" spans="1:8">
@@ -27068,7 +27068,7 @@
         <v>-4226.194352240001</v>
       </c>
       <c r="H1026">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1027" spans="1:8">
@@ -27094,7 +27094,7 @@
         <v>-4233.180352240001</v>
       </c>
       <c r="H1027">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1028" spans="1:8">
@@ -27120,7 +27120,7 @@
         <v>-4266.670152240001</v>
       </c>
       <c r="H1028">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1029" spans="1:8">
@@ -27146,7 +27146,7 @@
         <v>-4253.242952240001</v>
       </c>
       <c r="H1029">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1030" spans="1:8">
@@ -27172,7 +27172,7 @@
         <v>-4253.242952240001</v>
       </c>
       <c r="H1030">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1031" spans="1:8">
@@ -27198,7 +27198,7 @@
         <v>-4237.491352240001</v>
       </c>
       <c r="H1031">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1032" spans="1:8">
@@ -27224,7 +27224,7 @@
         <v>-4228.708952240001</v>
       </c>
       <c r="H1032">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1033" spans="1:8">
@@ -27250,7 +27250,7 @@
         <v>-4228.708952240001</v>
       </c>
       <c r="H1033">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1034" spans="1:8">
@@ -27276,7 +27276,7 @@
         <v>-4230.943352240001</v>
       </c>
       <c r="H1034">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1035" spans="1:8">
@@ -27302,7 +27302,7 @@
         <v>-4125.409152240001</v>
       </c>
       <c r="H1035">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1036" spans="1:8">
@@ -27328,7 +27328,7 @@
         <v>-4125.409152240001</v>
       </c>
       <c r="H1036">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1037" spans="1:8">
@@ -27354,7 +27354,7 @@
         <v>-4165.975752240001</v>
       </c>
       <c r="H1037">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1038" spans="1:8">
@@ -27380,7 +27380,7 @@
         <v>-4163.030652240001</v>
       </c>
       <c r="H1038">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1039" spans="1:8">
@@ -27406,7 +27406,7 @@
         <v>-4164.181752240002</v>
       </c>
       <c r="H1039">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1040" spans="1:8">
@@ -27432,7 +27432,7 @@
         <v>-4164.181752240002</v>
       </c>
       <c r="H1040">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1041" spans="1:8">
@@ -27458,7 +27458,7 @@
         <v>-4164.181752240002</v>
       </c>
       <c r="H1041">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1042" spans="1:8">
@@ -27484,7 +27484,7 @@
         <v>-4164.181752240002</v>
       </c>
       <c r="H1042">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1043" spans="1:8">
@@ -27510,7 +27510,7 @@
         <v>-4164.181752240002</v>
       </c>
       <c r="H1043">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1044" spans="1:8">
@@ -27536,7 +27536,7 @@
         <v>-4302.717508770002</v>
       </c>
       <c r="H1044">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1045" spans="1:8">
@@ -27562,7 +27562,7 @@
         <v>-4311.930514830002</v>
       </c>
       <c r="H1045">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1046" spans="1:8">
@@ -27588,7 +27588,7 @@
         <v>-4290.746114830002</v>
       </c>
       <c r="H1046">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1047" spans="1:8">
@@ -27614,7 +27614,7 @@
         <v>-4290.737614830002</v>
       </c>
       <c r="H1047">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1048" spans="1:8">
@@ -27640,7 +27640,7 @@
         <v>-4310.636614830002</v>
       </c>
       <c r="H1048">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1049" spans="1:8">
@@ -27666,7 +27666,7 @@
         <v>-4282.173514830002</v>
       </c>
       <c r="H1049">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1050" spans="1:8">
@@ -27692,7 +27692,7 @@
         <v>-4282.173514830002</v>
       </c>
       <c r="H1050">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1051" spans="1:8">
@@ -27718,7 +27718,7 @@
         <v>-4282.173514830002</v>
       </c>
       <c r="H1051">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1052" spans="1:8">
@@ -27744,7 +27744,7 @@
         <v>-4312.916614830002</v>
       </c>
       <c r="H1052">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1053" spans="1:8">
@@ -27770,7 +27770,7 @@
         <v>-4219.304814830002</v>
       </c>
       <c r="H1053">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1054" spans="1:8">
@@ -27796,7 +27796,7 @@
         <v>-4219.304814830002</v>
       </c>
       <c r="H1054">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1055" spans="1:8">
@@ -27822,7 +27822,7 @@
         <v>-4282.668914830002</v>
       </c>
       <c r="H1055">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1056" spans="1:8">
@@ -27848,7 +27848,7 @@
         <v>-4266.534014830002</v>
       </c>
       <c r="H1056">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1057" spans="1:8">
@@ -27874,7 +27874,7 @@
         <v>-4266.534014830002</v>
       </c>
       <c r="H1057">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1058" spans="1:8">
@@ -27900,7 +27900,7 @@
         <v>-4262.345514830002</v>
       </c>
       <c r="H1058">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1059" spans="1:8">
@@ -27926,7 +27926,7 @@
         <v>-4262.345514830002</v>
       </c>
       <c r="H1059">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1060" spans="1:8">
@@ -27952,7 +27952,7 @@
         <v>-4231.127214830001</v>
       </c>
       <c r="H1060">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1061" spans="1:8">
@@ -27978,7 +27978,7 @@
         <v>-4298.984714830001</v>
       </c>
       <c r="H1061">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1062" spans="1:8">
@@ -28004,7 +28004,7 @@
         <v>-4379.002114830001</v>
       </c>
       <c r="H1062">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1063" spans="1:8">
@@ -28030,7 +28030,7 @@
         <v>-4354.988114830001</v>
       </c>
       <c r="H1063">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1064" spans="1:8">
@@ -28056,7 +28056,7 @@
         <v>-4360.416814830001</v>
       </c>
       <c r="H1064">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1065" spans="1:8">
@@ -28082,7 +28082,7 @@
         <v>-4360.615714830002</v>
       </c>
       <c r="H1065">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1066" spans="1:8">
@@ -28108,7 +28108,7 @@
         <v>-4295.739414830002</v>
       </c>
       <c r="H1066">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1067" spans="1:8">
@@ -28134,7 +28134,7 @@
         <v>-4295.739414830002</v>
       </c>
       <c r="H1067">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1068" spans="1:8">
@@ -28160,7 +28160,7 @@
         <v>-4299.166814830001</v>
       </c>
       <c r="H1068">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1069" spans="1:8">
@@ -28186,7 +28186,7 @@
         <v>-4290.844214830001</v>
       </c>
       <c r="H1069">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1070" spans="1:8">
@@ -28212,7 +28212,7 @@
         <v>-4244.657214830001</v>
       </c>
       <c r="H1070">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1071" spans="1:8">
@@ -28238,7 +28238,7 @@
         <v>-4244.657214830001</v>
       </c>
       <c r="H1071">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1072" spans="1:8">
@@ -28264,7 +28264,7 @@
         <v>-4245.135814830001</v>
       </c>
       <c r="H1072">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1073" spans="1:8">
@@ -28290,7 +28290,7 @@
         <v>-4142.744914830001</v>
       </c>
       <c r="H1073">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1074" spans="1:8">
@@ -28316,7 +28316,7 @@
         <v>-4142.744914830001</v>
       </c>
       <c r="H1074">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1075" spans="1:8">
@@ -28342,7 +28342,7 @@
         <v>-4138.027314830001</v>
       </c>
       <c r="H1075">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1076" spans="1:8">
@@ -28368,7 +28368,7 @@
         <v>-4138.027314830001</v>
       </c>
       <c r="H1076">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1077" spans="1:8">
@@ -28394,7 +28394,7 @@
         <v>-4180.251014830001</v>
       </c>
       <c r="H1077">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1078" spans="1:8">
@@ -28420,7 +28420,7 @@
         <v>-4180.251014830001</v>
       </c>
       <c r="H1078">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1079" spans="1:8">
@@ -28446,7 +28446,7 @@
         <v>-4180.251014830001</v>
       </c>
       <c r="H1079">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1080" spans="1:8">
@@ -28472,7 +28472,7 @@
         <v>-4167.943514830001</v>
       </c>
       <c r="H1080">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1081" spans="1:8">
@@ -28498,7 +28498,7 @@
         <v>-4187.546514830001</v>
       </c>
       <c r="H1081">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1082" spans="1:8">
@@ -28524,7 +28524,7 @@
         <v>-4187.040103350001</v>
       </c>
       <c r="H1082">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1083" spans="1:8">
@@ -28550,7 +28550,7 @@
         <v>-4207.618803350001</v>
       </c>
       <c r="H1083">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1084" spans="1:8">
@@ -28576,7 +28576,7 @@
         <v>-4207.386355320001</v>
       </c>
       <c r="H1084">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1085" spans="1:8">
@@ -28758,7 +28758,7 @@
         <v>-4193.44465532</v>
       </c>
       <c r="H1091">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1092" spans="1:8">
@@ -28784,7 +28784,7 @@
         <v>-4155.82575532</v>
       </c>
       <c r="H1092">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1093" spans="1:8">
@@ -28836,7 +28836,7 @@
         <v>-3937.10430563</v>
       </c>
       <c r="H1094">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1095" spans="1:8">
@@ -28862,7 +28862,7 @@
         <v>-3922.34480563</v>
       </c>
       <c r="H1095">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1096" spans="1:8">
@@ -28888,7 +28888,7 @@
         <v>-3851.64250563</v>
       </c>
       <c r="H1096">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1097" spans="1:8">
@@ -28914,7 +28914,7 @@
         <v>-3847.43500563</v>
       </c>
       <c r="H1097">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1098" spans="1:8">
@@ -28940,7 +28940,7 @@
         <v>-3847.43500563</v>
       </c>
       <c r="H1098">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1099" spans="1:8">
@@ -28966,7 +28966,7 @@
         <v>-4032.89190563</v>
       </c>
       <c r="H1099">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1100" spans="1:8">
@@ -28992,7 +28992,7 @@
         <v>-3994.36920563</v>
       </c>
       <c r="H1100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1101" spans="1:8">
@@ -29018,7 +29018,7 @@
         <v>-3897.8324763</v>
       </c>
       <c r="H1101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1102" spans="1:8">
@@ -29044,7 +29044,7 @@
         <v>-3898.1246763</v>
       </c>
       <c r="H1102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1103" spans="1:8">
@@ -29070,7 +29070,7 @@
         <v>-3934.6945763</v>
       </c>
       <c r="H1103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1104" spans="1:8">
@@ -29096,7 +29096,7 @@
         <v>-3929.7653763</v>
       </c>
       <c r="H1104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1105" spans="1:8">
@@ -29122,7 +29122,7 @@
         <v>-3973.1446763</v>
       </c>
       <c r="H1105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1106" spans="1:8">
@@ -29148,7 +29148,7 @@
         <v>-3956.0429763</v>
       </c>
       <c r="H1106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1107" spans="1:8">
@@ -29174,7 +29174,7 @@
         <v>-3956.0429763</v>
       </c>
       <c r="H1107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1108" spans="1:8">
@@ -29200,7 +29200,7 @@
         <v>-3956.0429763</v>
       </c>
       <c r="H1108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1109" spans="1:8">
@@ -29226,7 +29226,7 @@
         <v>-3980.1557763</v>
       </c>
       <c r="H1109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1110" spans="1:8">
@@ -29252,7 +29252,7 @@
         <v>-3954.332426909999</v>
       </c>
       <c r="H1110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1111" spans="1:8">
@@ -29278,7 +29278,7 @@
         <v>-3954.332426909999</v>
       </c>
       <c r="H1111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1112" spans="1:8">
@@ -29304,7 +29304,7 @@
         <v>-3954.332426909999</v>
       </c>
       <c r="H1112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1113" spans="1:8">
@@ -29330,7 +29330,7 @@
         <v>-3959.15852691</v>
       </c>
       <c r="H1113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1114" spans="1:8">
@@ -29356,7 +29356,7 @@
         <v>-3960.81802691</v>
       </c>
       <c r="H1114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1115" spans="1:8">
@@ -29382,7 +29382,7 @@
         <v>-3969.68942691</v>
       </c>
       <c r="H1115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1116" spans="1:8">
@@ -29408,7 +29408,7 @@
         <v>-3989.14822691</v>
       </c>
       <c r="H1116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1117" spans="1:8">
@@ -29434,7 +29434,7 @@
         <v>-4006.60432691</v>
       </c>
       <c r="H1117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1118" spans="1:8">
@@ -29460,7 +29460,7 @@
         <v>-3912.723576299999</v>
       </c>
       <c r="H1118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1119" spans="1:8">
@@ -29486,7 +29486,7 @@
         <v>-3888.0835763</v>
       </c>
       <c r="H1119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1120" spans="1:8">
@@ -29512,7 +29512,7 @@
         <v>-3920.433776299999</v>
       </c>
       <c r="H1120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1121" spans="1:8">
@@ -29538,7 +29538,7 @@
         <v>-3932.335425689999</v>
       </c>
       <c r="H1121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1122" spans="1:8">
@@ -29564,7 +29564,7 @@
         <v>-3945.456525689999</v>
       </c>
       <c r="H1122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1123" spans="1:8">
@@ -29590,7 +29590,7 @@
         <v>-4053.832725689999</v>
       </c>
       <c r="H1123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1124" spans="1:8">
@@ -29616,7 +29616,7 @@
         <v>-4006.720025689999</v>
       </c>
       <c r="H1124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1125" spans="1:8">
@@ -29642,7 +29642,7 @@
         <v>-3951.976325689999</v>
       </c>
       <c r="H1125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1126" spans="1:8">
@@ -29668,7 +29668,7 @@
         <v>-3795.116059929999</v>
       </c>
       <c r="H1126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1127" spans="1:8">
@@ -29694,7 +29694,7 @@
         <v>-3805.583759929999</v>
       </c>
       <c r="H1127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1128" spans="1:8">
@@ -29720,7 +29720,7 @@
         <v>-3830.58295993</v>
       </c>
       <c r="H1128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1129" spans="1:8">
@@ -29746,7 +29746,7 @@
         <v>-3830.58295993</v>
       </c>
       <c r="H1129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1130" spans="1:8">
@@ -29772,7 +29772,7 @@
         <v>-3830.58295993</v>
       </c>
       <c r="H1130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1131" spans="1:8">
@@ -29798,7 +29798,7 @@
         <v>-3828.021959929999</v>
       </c>
       <c r="H1131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1132" spans="1:8">
@@ -29824,7 +29824,7 @@
         <v>-3841.081459929999</v>
       </c>
       <c r="H1132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1133" spans="1:8">
@@ -29850,7 +29850,7 @@
         <v>-3847.767482839999</v>
       </c>
       <c r="H1133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1134" spans="1:8">
@@ -29876,7 +29876,7 @@
         <v>-3871.939382839999</v>
       </c>
       <c r="H1134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1135" spans="1:8">
@@ -29902,7 +29902,7 @@
         <v>-3871.939382839999</v>
       </c>
       <c r="H1135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1136" spans="1:8">
@@ -29928,7 +29928,7 @@
         <v>-3871.939382839999</v>
       </c>
       <c r="H1136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1137" spans="1:8">
@@ -29954,7 +29954,7 @@
         <v>-3696.851930089999</v>
       </c>
       <c r="H1137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1138" spans="1:8">
@@ -29980,7 +29980,7 @@
         <v>-3693.400617629999</v>
       </c>
       <c r="H1138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1139" spans="1:8">
@@ -30006,7 +30006,7 @@
         <v>-3738.397617629999</v>
       </c>
       <c r="H1139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1140" spans="1:8">
@@ -30032,7 +30032,7 @@
         <v>-3742.766817629999</v>
       </c>
       <c r="H1140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1141" spans="1:8">
@@ -30058,7 +30058,7 @@
         <v>-3739.174917629999</v>
       </c>
       <c r="H1141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1142" spans="1:8">
@@ -30084,7 +30084,7 @@
         <v>-3749.572417629999</v>
       </c>
       <c r="H1142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1143" spans="1:8">
@@ -30110,7 +30110,7 @@
         <v>-3748.616517629999</v>
       </c>
       <c r="H1143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1144" spans="1:8">
@@ -30136,7 +30136,7 @@
         <v>-3750.220117629999</v>
       </c>
       <c r="H1144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1145" spans="1:8">
@@ -30162,7 +30162,7 @@
         <v>-3750.218117629999</v>
       </c>
       <c r="H1145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1146" spans="1:8">
@@ -30214,7 +30214,7 @@
         <v>-3742.743617629999</v>
       </c>
       <c r="H1147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1148" spans="1:8">
@@ -30240,7 +30240,7 @@
         <v>-3744.614017629999</v>
       </c>
       <c r="H1148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1149" spans="1:8">
@@ -30266,7 +30266,7 @@
         <v>-3756.483717629999</v>
       </c>
       <c r="H1149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1150" spans="1:8">
@@ -30292,7 +30292,7 @@
         <v>-3766.972817629999</v>
       </c>
       <c r="H1150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1151" spans="1:8">
@@ -30318,7 +30318,7 @@
         <v>-3759.422317629999</v>
       </c>
       <c r="H1151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1152" spans="1:8">
@@ -30344,7 +30344,7 @@
         <v>-3732.608717629999</v>
       </c>
       <c r="H1152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1153" spans="1:8">
@@ -30448,7 +30448,7 @@
         <v>-3776.746010909999</v>
       </c>
       <c r="H1156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1157" spans="1:8">
@@ -30474,7 +30474,7 @@
         <v>-3782.631410909999</v>
       </c>
       <c r="H1157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1158" spans="1:8">
@@ -30526,7 +30526,7 @@
         <v>-3909.763710909999</v>
       </c>
       <c r="H1159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1160" spans="1:8">
@@ -30552,7 +30552,7 @@
         <v>-3854.654110909999</v>
       </c>
       <c r="H1160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1161" spans="1:8">
@@ -30578,7 +30578,7 @@
         <v>-3879.928910909999</v>
       </c>
       <c r="H1161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1162" spans="1:8">
@@ -30604,7 +30604,7 @@
         <v>-3927.170193189999</v>
       </c>
       <c r="H1162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1163" spans="1:8">
@@ -30630,7 +30630,7 @@
         <v>-3896.145293189999</v>
       </c>
       <c r="H1163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1164" spans="1:8">
@@ -30656,7 +30656,7 @@
         <v>-3896.42729319</v>
       </c>
       <c r="H1164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1165" spans="1:8">
@@ -30682,7 +30682,7 @@
         <v>-3913.727593189999</v>
       </c>
       <c r="H1165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1166" spans="1:8">
@@ -30812,7 +30812,7 @@
         <v>-3905.398141409999</v>
       </c>
       <c r="H1170">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1171" spans="1:8">
@@ -30838,7 +30838,7 @@
         <v>-3905.398141409999</v>
       </c>
       <c r="H1171">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1172" spans="1:8">
@@ -30942,7 +30942,7 @@
         <v>-4123.517041409999</v>
       </c>
       <c r="H1175">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1176" spans="1:8">
@@ -30968,7 +30968,7 @@
         <v>-4132.734541409999</v>
       </c>
       <c r="H1176">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1177" spans="1:8">
@@ -30994,7 +30994,7 @@
         <v>-4132.834941409999</v>
       </c>
       <c r="H1177">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1178" spans="1:8">
@@ -31020,7 +31020,7 @@
         <v>-4138.20644141</v>
       </c>
       <c r="H1178">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1179" spans="1:8">
@@ -31046,7 +31046,7 @@
         <v>-4138.20644141</v>
       </c>
       <c r="H1179">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1180" spans="1:8">
@@ -31072,7 +31072,7 @@
         <v>-4146.68184141</v>
       </c>
       <c r="H1180">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1181" spans="1:8">
@@ -31098,7 +31098,7 @@
         <v>-4197.93634141</v>
       </c>
       <c r="H1181">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1182" spans="1:8">
@@ -31124,7 +31124,7 @@
         <v>-4269.247577919999</v>
       </c>
       <c r="H1182">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1183" spans="1:8">
@@ -31150,7 +31150,7 @@
         <v>-4044.232077919999</v>
       </c>
       <c r="H1183">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1184" spans="1:8">
@@ -31176,7 +31176,7 @@
         <v>-4059.99467792</v>
       </c>
       <c r="H1184">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1185" spans="1:8">
@@ -31202,7 +31202,7 @@
         <v>-3993.078714429999</v>
       </c>
       <c r="H1185">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1186" spans="1:8">
@@ -31228,7 +31228,7 @@
         <v>-3900.227357399999</v>
       </c>
       <c r="H1186">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1187" spans="1:8">
@@ -31254,7 +31254,7 @@
         <v>-3900.227357399999</v>
       </c>
       <c r="H1187">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1188" spans="1:8">
@@ -31280,7 +31280,7 @@
         <v>-3906.801557399999</v>
       </c>
       <c r="H1188">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1189" spans="1:8">
@@ -31306,7 +31306,7 @@
         <v>-3906.797957399999</v>
       </c>
       <c r="H1189">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1190" spans="1:8">
@@ -31332,7 +31332,7 @@
         <v>-3859.239532919999</v>
       </c>
       <c r="H1190">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1191" spans="1:8">
@@ -31358,7 +31358,7 @@
         <v>-3863.433132919999</v>
       </c>
       <c r="H1191">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1192" spans="1:8">
@@ -31384,7 +31384,7 @@
         <v>-3863.434732919999</v>
       </c>
       <c r="H1192">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1193" spans="1:8">
@@ -31410,7 +31410,7 @@
         <v>-3866.262032919999</v>
       </c>
       <c r="H1193">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1194" spans="1:8">
@@ -31436,7 +31436,7 @@
         <v>-3855.183432919999</v>
       </c>
       <c r="H1194">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1195" spans="1:8">
@@ -31462,7 +31462,7 @@
         <v>-3865.819132919999</v>
       </c>
       <c r="H1195">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1196" spans="1:8">
@@ -31488,7 +31488,7 @@
         <v>-3972.326632919999</v>
       </c>
       <c r="H1196">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1197" spans="1:8">
@@ -31514,7 +31514,7 @@
         <v>-3935.766732919999</v>
       </c>
       <c r="H1197">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1198" spans="1:8">
@@ -31540,7 +31540,7 @@
         <v>-3931.462732919999</v>
       </c>
       <c r="H1198">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1199" spans="1:8">
@@ -32398,7 +32398,7 @@
         <v>-3997.214721639999</v>
       </c>
       <c r="H1231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1232" spans="1:8">
@@ -32424,7 +32424,7 @@
         <v>-4021.152621639998</v>
       </c>
       <c r="H1232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1233" spans="1:8">
@@ -32450,7 +32450,7 @@
         <v>-4040.375521639999</v>
       </c>
       <c r="H1233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1234" spans="1:8">
@@ -32476,7 +32476,7 @@
         <v>-4110.969721639998</v>
       </c>
       <c r="H1234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1235" spans="1:8">
@@ -32502,7 +32502,7 @@
         <v>-4127.851021639998</v>
       </c>
       <c r="H1235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1236" spans="1:8">
@@ -32606,7 +32606,7 @@
         <v>-3996.098321639999</v>
       </c>
       <c r="H1239">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1240" spans="1:8">
@@ -32658,7 +32658,7 @@
         <v>-4016.877021639998</v>
       </c>
       <c r="H1241">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1242" spans="1:8">
